--- a/需求分析/接口文档/客户/商家商城接口.xlsx
+++ b/需求分析/接口文档/客户/商家商城接口.xlsx
@@ -668,75 +668,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,6 +682,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -758,24 +705,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,8 +742,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,6 +758,54 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,7 +868,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,97 +1012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,43 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,11 +1038,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,17 +1068,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,26 +1121,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,10 +1143,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,91 +1155,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,40 +1248,40 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9186,8 +9186,8 @@
   <sheetPr/>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64:R64"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/商家商城接口.xlsx
+++ b/需求分析/接口文档/客户/商家商城接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="12060" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="商品编辑" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>查找商品类目</t>
   </si>
@@ -204,6 +204,12 @@
     <t>result(json对象)</t>
   </si>
   <si>
+    <t>goodsCode</t>
+  </si>
+  <si>
+    <t>商品编码</t>
+  </si>
+  <si>
     <t>goodsAttr</t>
   </si>
   <si>
@@ -634,9 +640,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -668,22 +674,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,29 +756,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,44 +802,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,17 +810,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,13 +874,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,19 +922,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,61 +994,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,43 +1018,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,36 +1041,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1101,13 +1077,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,6 +1097,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,6 +1130,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1143,10 +1149,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,133 +1161,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1694,10 +1700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R251"/>
+  <dimension ref="A1:R254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="R95" sqref="R95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3077,11 +3083,11 @@
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
       <c r="K104" s="7" t="s">
         <v>58</v>
       </c>
@@ -3103,13 +3109,15 @@
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
-      <c r="K105" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L105" s="16"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="16"/>
-      <c r="O105" s="16"/>
+      <c r="K105" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
     </row>
     <row r="106" s="5" customFormat="1" spans="1:15">
       <c r="A106" s="6"/>
@@ -3122,15 +3130,13 @@
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
-      <c r="K106" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
+      <c r="K106" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
     </row>
     <row r="107" s="5" customFormat="1" spans="1:15">
       <c r="A107" s="6"/>
@@ -3144,11 +3150,11 @@
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
@@ -3165,11 +3171,11 @@
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L108" s="8"/>
       <c r="M108" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
@@ -3186,11 +3192,11 @@
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="8" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="L109" s="8"/>
       <c r="M109" s="8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
@@ -3207,11 +3213,11 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
@@ -3227,13 +3233,15 @@
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
-      <c r="K111" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
+      <c r="K111" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
     </row>
     <row r="112" s="5" customFormat="1" spans="1:15">
       <c r="A112" s="6"/>
@@ -3247,12 +3255,10 @@
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L112" s="17"/>
-      <c r="M112" s="17" t="s">
-        <v>66</v>
-      </c>
+      <c r="M112" s="17"/>
       <c r="N112" s="17"/>
       <c r="O112" s="17"/>
     </row>
@@ -3277,27 +3283,31 @@
       <c r="N113" s="17"/>
       <c r="O113" s="17"/>
     </row>
-    <row r="127" s="5" customFormat="1" spans="1:15">
-      <c r="A127" s="1" t="s">
+    <row r="114" s="5" customFormat="1" spans="1:15">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
     </row>
     <row r="128" s="5" customFormat="1" spans="1:15">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3314,85 +3324,77 @@
       <c r="O128" s="1"/>
     </row>
     <row r="129" s="5" customFormat="1" spans="1:15">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+    </row>
+    <row r="130" s="5" customFormat="1" spans="1:15">
+      <c r="A130" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2" t="s">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2" t="s">
+      <c r="G130" s="2"/>
+      <c r="H130" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2" t="s">
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-    </row>
-    <row r="130" s="5" customFormat="1" spans="1:15">
-      <c r="A130" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3" t="s">
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+    </row>
+    <row r="131" s="5" customFormat="1" spans="1:15">
+      <c r="A131" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F131" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3" t="s">
+      <c r="G131" s="3"/>
+      <c r="H131" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3" t="s">
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3" t="s">
+      <c r="L131" s="3"/>
+      <c r="M131" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
-    </row>
-    <row r="131" s="5" customFormat="1" spans="1:15">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
     </row>
     <row r="132" s="5" customFormat="1" spans="1:15">
       <c r="A132" s="6"/>
@@ -3401,21 +3403,23 @@
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G132" s="7"/>
       <c r="H132" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
-      <c r="K132" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
-      <c r="O132" s="3"/>
+      <c r="K132" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N132" s="7"/>
+      <c r="O132" s="7"/>
     </row>
     <row r="133" s="5" customFormat="1" spans="1:15">
       <c r="A133" s="6"/>
@@ -3424,23 +3428,21 @@
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="G133" s="7"/>
       <c r="H133" s="7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
-      <c r="K133" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L133" s="7"/>
-      <c r="M133" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
+      <c r="K133" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
     </row>
     <row r="134" s="5" customFormat="1" spans="1:15">
       <c r="A134" s="6"/>
@@ -3448,9 +3450,13 @@
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
-      <c r="F134" s="7"/>
+      <c r="F134" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
+      <c r="H134" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7" t="s">
@@ -3463,32 +3469,31 @@
       <c r="N134" s="7"/>
       <c r="O134" s="7"/>
     </row>
-    <row r="145" s="5" customFormat="1" spans="1:18">
-      <c r="A145" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q145" s="18"/>
-      <c r="R145" s="18"/>
+    <row r="135" s="5" customFormat="1" spans="1:15">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
     </row>
     <row r="146" s="5" customFormat="1" spans="1:18">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3503,99 +3508,93 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="18"/>
+      <c r="P146" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="Q146" s="18"/>
       <c r="R146" s="18"/>
     </row>
     <row r="147" s="5" customFormat="1" spans="1:18">
-      <c r="A147" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
       <c r="P147" s="18"/>
       <c r="Q147" s="18"/>
       <c r="R147" s="18"/>
     </row>
     <row r="148" s="5" customFormat="1" spans="1:18">
-      <c r="A148" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3" t="s">
+      <c r="A148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+      <c r="P148" s="18"/>
+      <c r="Q148" s="18"/>
+      <c r="R148" s="18"/>
+    </row>
+    <row r="149" s="5" customFormat="1" spans="1:18">
+      <c r="A149" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3" t="s">
+      <c r="G149" s="3"/>
+      <c r="H149" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3" t="s">
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L148" s="3"/>
-      <c r="M148" s="3" t="s">
+      <c r="L149" s="3"/>
+      <c r="M149" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N148" s="3"/>
-      <c r="O148" s="3"/>
-      <c r="P148" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q148" s="15"/>
-      <c r="R148" s="15"/>
-    </row>
-    <row r="149" s="5" customFormat="1" spans="1:18">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L149" s="7"/>
-      <c r="M149" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N149" s="7"/>
-      <c r="O149" s="7"/>
-      <c r="P149" s="15"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="Q149" s="15"/>
       <c r="R149" s="15"/>
     </row>
@@ -3606,19 +3605,23 @@
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G150" s="7"/>
       <c r="H150" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
-      <c r="O150" s="3"/>
+      <c r="K150" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
       <c r="P150" s="15"/>
       <c r="Q150" s="15"/>
       <c r="R150" s="15"/>
@@ -3630,22 +3633,22 @@
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G151" s="7"/>
       <c r="H151" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
-      <c r="L151" s="7"/>
-      <c r="M151" s="7"/>
-      <c r="N151" s="7"/>
-      <c r="O151" s="7"/>
-      <c r="P151" s="19"/>
-      <c r="Q151" s="19"/>
-      <c r="R151" s="19"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="15"/>
+      <c r="Q151" s="15"/>
+      <c r="R151" s="15"/>
     </row>
     <row r="152" s="5" customFormat="1" spans="1:18">
       <c r="A152" s="6"/>
@@ -3654,11 +3657,11 @@
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G152" s="7"/>
       <c r="H152" s="7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -3678,19 +3681,19 @@
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G153" s="7"/>
       <c r="H153" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
-      <c r="K153" s="6"/>
-      <c r="L153" s="6"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
-      <c r="O153" s="6"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
       <c r="P153" s="19"/>
       <c r="Q153" s="19"/>
       <c r="R153" s="19"/>
@@ -3702,19 +3705,19 @@
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G154" s="7"/>
       <c r="H154" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
-      <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="6"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
       <c r="P154" s="19"/>
       <c r="Q154" s="19"/>
       <c r="R154" s="19"/>
@@ -3730,7 +3733,7 @@
       </c>
       <c r="G155" s="7"/>
       <c r="H155" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -3749,13 +3752,15 @@
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
-      <c r="F156" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
+      <c r="F156" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
@@ -3771,15 +3776,15 @@
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
-      <c r="F157" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
+      <c r="F157" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
@@ -3796,12 +3801,10 @@
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G158" s="8"/>
-      <c r="H158" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="H158" s="8"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="6"/>
@@ -3820,11 +3823,11 @@
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G159" s="8"/>
       <c r="H159" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
@@ -3844,11 +3847,11 @@
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
@@ -3861,141 +3864,143 @@
       <c r="Q160" s="19"/>
       <c r="R160" s="19"/>
     </row>
-    <row r="176" s="5" customFormat="1" spans="1:15">
-      <c r="A176" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-    </row>
-    <row r="177" s="5" customFormat="1" spans="1:15">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
+    <row r="161" s="5" customFormat="1" spans="1:18">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="19"/>
+    </row>
+    <row r="162" s="5" customFormat="1" spans="1:18">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
     </row>
     <row r="178" s="5" customFormat="1" spans="1:15">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+    </row>
+    <row r="179" s="5" customFormat="1" spans="1:15">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+    </row>
+    <row r="180" s="5" customFormat="1" spans="1:15">
+      <c r="A180" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2" t="s">
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2" t="s">
+      <c r="G180" s="2"/>
+      <c r="H180" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2" t="s">
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-    </row>
-    <row r="179" s="5" customFormat="1" spans="1:15">
-      <c r="A179" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3" t="s">
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+    </row>
+    <row r="181" s="5" customFormat="1" spans="1:15">
+      <c r="A181" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="F181" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3" t="s">
+      <c r="G181" s="3"/>
+      <c r="H181" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3" t="s">
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L179" s="3"/>
-      <c r="M179" s="3" t="s">
+      <c r="L181" s="3"/>
+      <c r="M181" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N179" s="3"/>
-      <c r="O179" s="3"/>
-    </row>
-    <row r="180" s="5" customFormat="1" spans="1:15">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
-      <c r="K180" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L180" s="7"/>
-      <c r="M180" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N180" s="7"/>
-      <c r="O180" s="7"/>
-    </row>
-    <row r="181" s="5" customFormat="1" spans="1:15">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3"/>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
     </row>
@@ -4006,19 +4011,23 @@
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G182" s="7"/>
       <c r="H182" s="7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
-      <c r="K182" s="3"/>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3"/>
-      <c r="N182" s="3"/>
-      <c r="O182" s="3"/>
+      <c r="K182" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
     </row>
     <row r="183" s="5" customFormat="1" spans="1:15">
       <c r="A183" s="6"/>
@@ -4027,19 +4036,19 @@
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G183" s="7"/>
       <c r="H183" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
-      <c r="K183" s="7"/>
-      <c r="L183" s="7"/>
-      <c r="M183" s="7"/>
-      <c r="N183" s="7"/>
-      <c r="O183" s="7"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
     </row>
     <row r="184" s="5" customFormat="1" spans="1:15">
       <c r="A184" s="6"/>
@@ -4048,19 +4057,19 @@
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G184" s="7"/>
       <c r="H184" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
-      <c r="K184" s="7"/>
-      <c r="L184" s="7"/>
-      <c r="M184" s="7"/>
-      <c r="N184" s="7"/>
-      <c r="O184" s="7"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
     </row>
     <row r="185" s="5" customFormat="1" spans="1:15">
       <c r="A185" s="6"/>
@@ -4069,19 +4078,19 @@
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G185" s="7"/>
       <c r="H185" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
-      <c r="K185" s="6"/>
-      <c r="L185" s="6"/>
-      <c r="M185" s="6"/>
-      <c r="N185" s="6"/>
-      <c r="O185" s="6"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
     </row>
     <row r="186" s="5" customFormat="1" spans="1:15">
       <c r="A186" s="6"/>
@@ -4090,19 +4099,19 @@
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="7" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="G186" s="7"/>
       <c r="H186" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
-      <c r="K186" s="6"/>
-      <c r="L186" s="6"/>
-      <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
-      <c r="O186" s="6"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
     </row>
     <row r="187" s="5" customFormat="1" spans="1:15">
       <c r="A187" s="6"/>
@@ -4111,19 +4120,19 @@
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G187" s="7"/>
       <c r="H187" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
-      <c r="K187" s="6"/>
-      <c r="L187" s="6"/>
-      <c r="M187" s="6"/>
-      <c r="N187" s="6"/>
-      <c r="O187" s="6"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7"/>
     </row>
     <row r="188" s="5" customFormat="1" spans="1:15">
       <c r="A188" s="6"/>
@@ -4131,13 +4140,15 @@
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
-      <c r="F188" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
-      <c r="J188" s="8"/>
+      <c r="F188" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
@@ -4150,15 +4161,15 @@
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
-      <c r="F189" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
+      <c r="F189" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
       <c r="M189" s="6"/>
@@ -4171,15 +4182,15 @@
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
-      <c r="F190" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I190" s="8"/>
-      <c r="J190" s="8"/>
+      <c r="F190" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
@@ -4193,12 +4204,10 @@
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G191" s="8"/>
-      <c r="H191" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="H191" s="8"/>
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
       <c r="K191" s="6"/>
@@ -4214,11 +4223,11 @@
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
@@ -4235,11 +4244,11 @@
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G193" s="8"/>
       <c r="H193" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
@@ -4249,488 +4258,482 @@
       <c r="N193" s="6"/>
       <c r="O193" s="6"/>
     </row>
-    <row r="207" s="5" customFormat="1" spans="1:15">
-      <c r="A207" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
-      <c r="M207" s="1"/>
-      <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
-    </row>
-    <row r="208" s="5" customFormat="1" spans="1:15">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-    </row>
-    <row r="209" s="5" customFormat="1" spans="1:15">
-      <c r="A209" s="2" t="s">
+    <row r="194" s="5" customFormat="1" spans="1:15">
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I194" s="8"/>
+      <c r="J194" s="8"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+    </row>
+    <row r="195" s="5" customFormat="1" spans="1:15">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G195" s="8"/>
+      <c r="H195" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I195" s="8"/>
+      <c r="J195" s="8"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+    </row>
+    <row r="196" s="5" customFormat="1" spans="1:15">
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G196" s="8"/>
+      <c r="H196" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I196" s="8"/>
+      <c r="J196" s="8"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+    </row>
+    <row r="210" s="5" customFormat="1" spans="1:15">
+      <c r="A210" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+    </row>
+    <row r="211" s="5" customFormat="1" spans="1:15">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" s="5" customFormat="1" spans="1:15">
+      <c r="A212" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2" t="s">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F209" s="2" t="s">
+      <c r="F212" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2" t="s">
+      <c r="G212" s="2"/>
+      <c r="H212" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2" t="s">
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-    </row>
-    <row r="210" s="5" customFormat="1" spans="1:15">
-      <c r="A210" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3" t="s">
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+    </row>
+    <row r="213" s="5" customFormat="1" spans="1:15">
+      <c r="A213" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F210" s="3" t="s">
+      <c r="F213" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3" t="s">
+      <c r="G213" s="3"/>
+      <c r="H213" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3" t="s">
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L210" s="3"/>
-      <c r="M210" s="3" t="s">
+      <c r="L213" s="3"/>
+      <c r="M213" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N210" s="3"/>
-      <c r="O210" s="3"/>
-    </row>
-    <row r="211" s="5" customFormat="1" spans="1:15">
-      <c r="A211" s="6"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-      <c r="F211" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G211" s="7"/>
-      <c r="H211" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I211" s="7"/>
-      <c r="J211" s="7"/>
-      <c r="K211" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L211" s="7"/>
-      <c r="M211" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N211" s="7"/>
-      <c r="O211" s="7"/>
-    </row>
-    <row r="212" s="5" customFormat="1" spans="1:15">
-      <c r="A212" s="6"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
-      <c r="F212" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" s="7"/>
-      <c r="H212" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I212" s="7"/>
-      <c r="J212" s="7"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
-    </row>
-    <row r="213" s="5" customFormat="1" spans="1:15">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
-      <c r="F213" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I213" s="7"/>
-      <c r="J213" s="7"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="226" s="5" customFormat="1" spans="1:15">
-      <c r="A226" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-    </row>
-    <row r="227" s="5" customFormat="1" spans="1:15">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-    </row>
-    <row r="228" s="5" customFormat="1" spans="1:15">
-      <c r="A228" s="2" t="s">
+    <row r="214" s="5" customFormat="1" spans="1:15">
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214" s="7"/>
+      <c r="J214" s="7"/>
+      <c r="K214" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L214" s="7"/>
+      <c r="M214" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N214" s="7"/>
+      <c r="O214" s="7"/>
+    </row>
+    <row r="215" s="5" customFormat="1" spans="1:15">
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I215" s="7"/>
+      <c r="J215" s="7"/>
+      <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+    </row>
+    <row r="216" s="5" customFormat="1" spans="1:15">
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I216" s="7"/>
+      <c r="J216" s="7"/>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+    </row>
+    <row r="229" s="5" customFormat="1" spans="1:15">
+      <c r="A229" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+    </row>
+    <row r="230" s="5" customFormat="1" spans="1:15">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+    </row>
+    <row r="231" s="5" customFormat="1" spans="1:15">
+      <c r="A231" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2" t="s">
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F228" s="2" t="s">
+      <c r="F231" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2" t="s">
+      <c r="G231" s="2"/>
+      <c r="H231" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2" t="s">
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
-    </row>
-    <row r="229" s="5" customFormat="1" spans="1:15">
-      <c r="A229" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3" t="s">
+      <c r="L231" s="2"/>
+      <c r="M231" s="2"/>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+    </row>
+    <row r="232" s="5" customFormat="1" spans="1:15">
+      <c r="A232" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="F232" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3" t="s">
+      <c r="G232" s="3"/>
+      <c r="H232" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3" t="s">
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L229" s="3"/>
-      <c r="M229" s="3" t="s">
+      <c r="L232" s="3"/>
+      <c r="M232" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N229" s="3"/>
-      <c r="O229" s="3"/>
-    </row>
-    <row r="230" s="5" customFormat="1" spans="1:15">
-      <c r="A230" s="6"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
-      <c r="F230" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
-      <c r="K230" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L230" s="7"/>
-      <c r="M230" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N230" s="7"/>
-      <c r="O230" s="7"/>
-    </row>
-    <row r="231" s="5" customFormat="1" spans="1:15">
-      <c r="A231" s="6"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
-      <c r="F231" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I231" s="7"/>
-      <c r="J231" s="7"/>
-      <c r="K231" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L231" s="3"/>
-      <c r="M231" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N231" s="3"/>
-      <c r="O231" s="3"/>
-    </row>
-    <row r="232" s="5" customFormat="1" spans="1:15">
-      <c r="A232" s="6"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
-      <c r="F232" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G232" s="7"/>
-      <c r="H232" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I232" s="7"/>
-      <c r="J232" s="7"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
       <c r="N232" s="3"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="244" s="5" customFormat="1" spans="1:15">
-      <c r="A244" s="1" t="s">
+    <row r="233" s="5" customFormat="1" spans="1:15">
+      <c r="A233" s="6"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" s="7"/>
+      <c r="J233" s="7"/>
+      <c r="K233" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L233" s="7"/>
+      <c r="M233" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N233" s="7"/>
+      <c r="O233" s="7"/>
+    </row>
+    <row r="234" s="5" customFormat="1" spans="1:15">
+      <c r="A234" s="6"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I234" s="7"/>
+      <c r="J234" s="7"/>
+      <c r="K234" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+    </row>
+    <row r="235" s="5" customFormat="1" spans="1:15">
+      <c r="A235" s="6"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-      <c r="I244" s="1"/>
-      <c r="J244" s="1"/>
-      <c r="K244" s="1"/>
-      <c r="L244" s="1"/>
-      <c r="M244" s="1"/>
-      <c r="N244" s="1"/>
-      <c r="O244" s="1"/>
-    </row>
-    <row r="245" s="5" customFormat="1" spans="1:15">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="1"/>
-      <c r="M245" s="1"/>
-      <c r="N245" s="1"/>
-      <c r="O245" s="1"/>
-    </row>
-    <row r="246" s="5" customFormat="1" spans="1:15">
-      <c r="A246" s="2" t="s">
+      <c r="G235" s="7"/>
+      <c r="H235" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I235" s="7"/>
+      <c r="J235" s="7"/>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+    </row>
+    <row r="247" s="5" customFormat="1" spans="1:15">
+      <c r="A247" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+    </row>
+    <row r="248" s="5" customFormat="1" spans="1:15">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+    </row>
+    <row r="249" s="5" customFormat="1" spans="1:15">
+      <c r="A249" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2" t="s">
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F246" s="2" t="s">
+      <c r="F249" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2" t="s">
+      <c r="G249" s="2"/>
+      <c r="H249" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2" t="s">
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
-      <c r="O246" s="2"/>
-    </row>
-    <row r="247" s="5" customFormat="1" spans="1:15">
-      <c r="A247" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3" t="s">
+      <c r="L249" s="2"/>
+      <c r="M249" s="2"/>
+      <c r="N249" s="2"/>
+      <c r="O249" s="2"/>
+    </row>
+    <row r="250" s="5" customFormat="1" spans="1:15">
+      <c r="A250" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F247" s="3" t="s">
+      <c r="F250" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3" t="s">
+      <c r="G250" s="3"/>
+      <c r="H250" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3" t="s">
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3" t="s">
+      <c r="L250" s="3"/>
+      <c r="M250" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N247" s="3"/>
-      <c r="O247" s="3"/>
-    </row>
-    <row r="248" s="5" customFormat="1" spans="1:15">
-      <c r="A248" s="6"/>
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I248" s="7"/>
-      <c r="J248" s="7"/>
-      <c r="K248" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L248" s="7"/>
-      <c r="M248" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N248" s="7"/>
-      <c r="O248" s="7"/>
-    </row>
-    <row r="249" s="5" customFormat="1" spans="1:15">
-      <c r="A249" s="6"/>
-      <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-      <c r="F249" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G249" s="7"/>
-      <c r="H249" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I249" s="7"/>
-      <c r="J249" s="7"/>
-      <c r="K249" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L249" s="7"/>
-      <c r="M249" s="7"/>
-      <c r="N249" s="7"/>
-      <c r="O249" s="7"/>
-    </row>
-    <row r="250" s="5" customFormat="1" spans="1:15">
-      <c r="A250" s="6"/>
-      <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-      <c r="F250" s="6"/>
-      <c r="G250" s="6"/>
-      <c r="H250" s="6"/>
-      <c r="I250" s="6"/>
-      <c r="J250" s="6"/>
-      <c r="K250" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L250" s="7"/>
-      <c r="M250" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N250" s="7"/>
-      <c r="O250" s="7"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
     </row>
     <row r="251" s="5" customFormat="1" spans="1:15">
       <c r="A251" s="6"/>
@@ -4738,23 +4741,92 @@
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
-      <c r="F251" s="6"/>
-      <c r="G251" s="6"/>
-      <c r="H251" s="6"/>
-      <c r="I251" s="6"/>
-      <c r="J251" s="6"/>
+      <c r="F251" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I251" s="7"/>
+      <c r="J251" s="7"/>
       <c r="K251" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="L251" s="7"/>
       <c r="M251" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="N251" s="7"/>
       <c r="O251" s="7"/>
     </row>
+    <row r="252" s="5" customFormat="1" spans="1:15">
+      <c r="A252" s="6"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G252" s="7"/>
+      <c r="H252" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I252" s="7"/>
+      <c r="J252" s="7"/>
+      <c r="K252" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L252" s="7"/>
+      <c r="M252" s="7"/>
+      <c r="N252" s="7"/>
+      <c r="O252" s="7"/>
+    </row>
+    <row r="253" s="5" customFormat="1" spans="1:15">
+      <c r="A253" s="6"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L253" s="7"/>
+      <c r="M253" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N253" s="7"/>
+      <c r="O253" s="7"/>
+    </row>
+    <row r="254" s="5" customFormat="1" spans="1:15">
+      <c r="A254" s="6"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+      <c r="K254" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L254" s="7"/>
+      <c r="M254" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N254" s="7"/>
+      <c r="O254" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="363">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4913,15 +4985,15 @@
     <mergeCell ref="H102:J102"/>
     <mergeCell ref="K102:L102"/>
     <mergeCell ref="M102:O102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:J103"/>
     <mergeCell ref="K103:L103"/>
     <mergeCell ref="M103:O103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:J104"/>
     <mergeCell ref="K104:L104"/>
     <mergeCell ref="M104:O104"/>
-    <mergeCell ref="K105:O105"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="K106:O106"/>
     <mergeCell ref="K107:L107"/>
     <mergeCell ref="M107:O107"/>
     <mergeCell ref="K108:L108"/>
@@ -4930,188 +5002,194 @@
     <mergeCell ref="M109:O109"/>
     <mergeCell ref="K110:L110"/>
     <mergeCell ref="M110:O110"/>
-    <mergeCell ref="K111:O111"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="K112:O112"/>
     <mergeCell ref="K113:L113"/>
     <mergeCell ref="M113:O113"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:O129"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:O114"/>
     <mergeCell ref="A130:D130"/>
     <mergeCell ref="F130:G130"/>
     <mergeCell ref="H130:J130"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="M130:O130"/>
+    <mergeCell ref="K130:O130"/>
+    <mergeCell ref="A131:D131"/>
     <mergeCell ref="F131:G131"/>
     <mergeCell ref="H131:J131"/>
     <mergeCell ref="K131:L131"/>
     <mergeCell ref="M131:O131"/>
     <mergeCell ref="F132:G132"/>
     <mergeCell ref="H132:J132"/>
-    <mergeCell ref="K132:O132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:O132"/>
     <mergeCell ref="F133:G133"/>
     <mergeCell ref="H133:J133"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="M133:O133"/>
+    <mergeCell ref="K133:O133"/>
     <mergeCell ref="F134:G134"/>
     <mergeCell ref="H134:J134"/>
     <mergeCell ref="K134:L134"/>
     <mergeCell ref="M134:O134"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="H147:J147"/>
-    <mergeCell ref="K147:O147"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="M135:O135"/>
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="F148:G148"/>
     <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="M148:O148"/>
+    <mergeCell ref="K148:O148"/>
+    <mergeCell ref="A149:D149"/>
     <mergeCell ref="F149:G149"/>
     <mergeCell ref="H149:J149"/>
     <mergeCell ref="K149:L149"/>
     <mergeCell ref="M149:O149"/>
     <mergeCell ref="F150:G150"/>
     <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:O150"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="M150:O150"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="H151:J151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="K151:O151"/>
     <mergeCell ref="F152:G152"/>
     <mergeCell ref="H152:J152"/>
     <mergeCell ref="K152:L152"/>
     <mergeCell ref="M152:O152"/>
     <mergeCell ref="F153:G153"/>
     <mergeCell ref="H153:J153"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="M153:O153"/>
     <mergeCell ref="F154:G154"/>
     <mergeCell ref="H154:J154"/>
     <mergeCell ref="F155:G155"/>
     <mergeCell ref="H155:J155"/>
-    <mergeCell ref="F156:J156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:J156"/>
     <mergeCell ref="F157:G157"/>
     <mergeCell ref="H157:J157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="F158:J158"/>
     <mergeCell ref="F159:G159"/>
     <mergeCell ref="H159:J159"/>
     <mergeCell ref="F160:G160"/>
     <mergeCell ref="H160:J160"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="H178:J178"/>
-    <mergeCell ref="K178:O178"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="H179:J179"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="M179:O179"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="A180:D180"/>
     <mergeCell ref="F180:G180"/>
     <mergeCell ref="H180:J180"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="M180:O180"/>
+    <mergeCell ref="K180:O180"/>
+    <mergeCell ref="A181:D181"/>
     <mergeCell ref="F181:G181"/>
     <mergeCell ref="H181:J181"/>
-    <mergeCell ref="K181:O181"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="M181:O181"/>
     <mergeCell ref="F182:G182"/>
     <mergeCell ref="H182:J182"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="M182:O182"/>
     <mergeCell ref="F183:G183"/>
     <mergeCell ref="H183:J183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:O183"/>
+    <mergeCell ref="K183:O183"/>
     <mergeCell ref="F184:G184"/>
     <mergeCell ref="H184:J184"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="M184:O184"/>
     <mergeCell ref="F185:G185"/>
     <mergeCell ref="H185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M185:O185"/>
     <mergeCell ref="F186:G186"/>
     <mergeCell ref="H186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:O186"/>
     <mergeCell ref="F187:G187"/>
     <mergeCell ref="H187:J187"/>
-    <mergeCell ref="F188:J188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:J188"/>
     <mergeCell ref="F189:G189"/>
     <mergeCell ref="H189:J189"/>
     <mergeCell ref="F190:G190"/>
     <mergeCell ref="H190:J190"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="H191:J191"/>
+    <mergeCell ref="F191:J191"/>
     <mergeCell ref="F192:G192"/>
     <mergeCell ref="H192:J192"/>
     <mergeCell ref="F193:G193"/>
     <mergeCell ref="H193:J193"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="F209:G209"/>
-    <mergeCell ref="H209:J209"/>
-    <mergeCell ref="K209:O209"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="H210:J210"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="M210:O210"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="H211:J211"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="M211:O211"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="H194:J194"/>
+    <mergeCell ref="F195:G195"/>
+    <mergeCell ref="H195:J195"/>
+    <mergeCell ref="F196:G196"/>
+    <mergeCell ref="H196:J196"/>
+    <mergeCell ref="A212:D212"/>
     <mergeCell ref="F212:G212"/>
     <mergeCell ref="H212:J212"/>
     <mergeCell ref="K212:O212"/>
+    <mergeCell ref="A213:D213"/>
     <mergeCell ref="F213:G213"/>
     <mergeCell ref="H213:J213"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="H228:J228"/>
-    <mergeCell ref="K228:O228"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="H229:J229"/>
-    <mergeCell ref="K229:L229"/>
-    <mergeCell ref="M229:O229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="H230:J230"/>
-    <mergeCell ref="K230:L230"/>
-    <mergeCell ref="M230:O230"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="M213:O213"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:J214"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="M214:O214"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="H215:J215"/>
+    <mergeCell ref="K215:O215"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="H216:J216"/>
+    <mergeCell ref="A231:D231"/>
     <mergeCell ref="F231:G231"/>
     <mergeCell ref="H231:J231"/>
-    <mergeCell ref="K231:L231"/>
-    <mergeCell ref="M231:O231"/>
+    <mergeCell ref="K231:O231"/>
+    <mergeCell ref="A232:D232"/>
     <mergeCell ref="F232:G232"/>
     <mergeCell ref="H232:J232"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="F246:G246"/>
-    <mergeCell ref="H246:J246"/>
-    <mergeCell ref="K246:O246"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="H247:J247"/>
-    <mergeCell ref="K247:L247"/>
-    <mergeCell ref="M247:O247"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="H248:J248"/>
-    <mergeCell ref="K248:L248"/>
-    <mergeCell ref="M248:O248"/>
+    <mergeCell ref="K232:L232"/>
+    <mergeCell ref="M232:O232"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="H233:J233"/>
+    <mergeCell ref="K233:L233"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="F234:G234"/>
+    <mergeCell ref="H234:J234"/>
+    <mergeCell ref="K234:L234"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="H235:J235"/>
+    <mergeCell ref="A249:D249"/>
     <mergeCell ref="F249:G249"/>
     <mergeCell ref="H249:J249"/>
     <mergeCell ref="K249:O249"/>
+    <mergeCell ref="A250:D250"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="H250:J250"/>
     <mergeCell ref="K250:L250"/>
     <mergeCell ref="M250:O250"/>
+    <mergeCell ref="F251:G251"/>
+    <mergeCell ref="H251:J251"/>
     <mergeCell ref="K251:L251"/>
     <mergeCell ref="M251:O251"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:J252"/>
+    <mergeCell ref="K252:O252"/>
+    <mergeCell ref="K253:L253"/>
+    <mergeCell ref="M253:O253"/>
+    <mergeCell ref="K254:L254"/>
+    <mergeCell ref="M254:O254"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R9"/>
     <mergeCell ref="A21:O22"/>
     <mergeCell ref="A43:O44"/>
     <mergeCell ref="A67:O68"/>
     <mergeCell ref="A94:O95"/>
-    <mergeCell ref="A127:O128"/>
-    <mergeCell ref="A145:O146"/>
-    <mergeCell ref="P145:R147"/>
-    <mergeCell ref="P148:R150"/>
-    <mergeCell ref="A176:O177"/>
-    <mergeCell ref="A207:O208"/>
-    <mergeCell ref="A226:O227"/>
-    <mergeCell ref="A244:O245"/>
+    <mergeCell ref="A128:O129"/>
+    <mergeCell ref="A146:O147"/>
+    <mergeCell ref="P146:R148"/>
+    <mergeCell ref="P149:R151"/>
+    <mergeCell ref="A178:O179"/>
+    <mergeCell ref="A210:O211"/>
+    <mergeCell ref="A229:O230"/>
+    <mergeCell ref="A247:O248"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5124,8 +5202,8 @@
   <sheetPr/>
   <dimension ref="A1:O223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:G35"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5139,7 +5217,7 @@
   <sheetData>
     <row r="1" s="13" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5202,7 +5280,7 @@
     </row>
     <row r="4" s="13" customFormat="1" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5215,7 +5293,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -5224,7 +5302,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -5270,11 +5348,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -5286,11 +5364,11 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -5307,11 +5385,11 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -5328,11 +5406,11 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -5349,11 +5427,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5370,11 +5448,11 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5391,11 +5469,11 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5412,11 +5490,11 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -5433,11 +5511,11 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5449,7 +5527,7 @@
     </row>
     <row r="32" s="13" customFormat="1" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5512,7 +5590,7 @@
     </row>
     <row r="35" s="13" customFormat="1" spans="1:15">
       <c r="A35" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5525,7 +5603,7 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -5534,7 +5612,7 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -5592,11 +5670,11 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5608,7 +5686,7 @@
     </row>
     <row r="59" s="13" customFormat="1" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5671,7 +5749,7 @@
     </row>
     <row r="62" s="13" customFormat="1" spans="1:15">
       <c r="A62" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5684,7 +5762,7 @@
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -5693,7 +5771,7 @@
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -5751,11 +5829,11 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -5772,11 +5850,11 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -5793,11 +5871,11 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -5814,11 +5892,11 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -5835,11 +5913,11 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -5856,11 +5934,11 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -5877,11 +5955,11 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -5898,11 +5976,11 @@
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -5919,11 +5997,11 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -5935,7 +6013,7 @@
     </row>
     <row r="86" s="13" customFormat="1" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5998,7 +6076,7 @@
     </row>
     <row r="89" s="13" customFormat="1" spans="1:15">
       <c r="A89" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6011,7 +6089,7 @@
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -6020,7 +6098,7 @@
       </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
@@ -6114,11 +6192,11 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -6135,11 +6213,11 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -6156,11 +6234,11 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -6177,11 +6255,11 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -6198,18 +6276,18 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L97" s="3"/>
       <c r="M97" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
     </row>
     <row r="119" s="13" customFormat="1" spans="1:15">
       <c r="A119" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6272,7 +6350,7 @@
     </row>
     <row r="122" s="13" customFormat="1" spans="1:15">
       <c r="A122" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6285,7 +6363,7 @@
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -6294,7 +6372,7 @@
       </c>
       <c r="L122" s="3"/>
       <c r="M122" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
@@ -6352,11 +6430,11 @@
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -6377,7 +6455,7 @@
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -6394,11 +6472,11 @@
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I127" s="14"/>
       <c r="J127" s="3"/>
@@ -6419,7 +6497,7 @@
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -6431,7 +6509,7 @@
     </row>
     <row r="151" s="13" customFormat="1" spans="1:15">
       <c r="A151" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6494,7 +6572,7 @@
     </row>
     <row r="154" s="13" customFormat="1" spans="1:15">
       <c r="A154" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -6507,7 +6585,7 @@
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
@@ -6516,7 +6594,7 @@
       </c>
       <c r="L154" s="3"/>
       <c r="M154" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
@@ -6578,11 +6656,11 @@
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -6656,11 +6734,11 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L160" s="3"/>
       <c r="M160" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
@@ -6677,7 +6755,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L161" s="14"/>
       <c r="M161" s="3"/>
@@ -6696,11 +6774,11 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L162" s="3"/>
       <c r="M162" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N162" s="14"/>
       <c r="O162" s="3"/>
@@ -6721,7 +6799,7 @@
       </c>
       <c r="L163" s="3"/>
       <c r="M163" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
@@ -6742,7 +6820,7 @@
       </c>
       <c r="L164" s="3"/>
       <c r="M164" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
@@ -6763,7 +6841,7 @@
       </c>
       <c r="L165" s="3"/>
       <c r="M165" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
@@ -6780,18 +6858,18 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L166" s="3"/>
       <c r="M166" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
     </row>
     <row r="180" s="13" customFormat="1" spans="1:15">
       <c r="A180" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6854,20 +6932,20 @@
     </row>
     <row r="183" s="13" customFormat="1" spans="1:15">
       <c r="A183" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
@@ -6876,7 +6954,7 @@
       </c>
       <c r="L183" s="3"/>
       <c r="M183" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
@@ -6938,11 +7016,11 @@
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
@@ -7016,7 +7094,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L189" s="3"/>
       <c r="M189" s="3" t="s">
@@ -7037,11 +7115,11 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L190" s="3"/>
       <c r="M190" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
@@ -7058,7 +7136,7 @@
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
       <c r="K191" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L191" s="14"/>
       <c r="M191" s="3"/>
@@ -7077,11 +7155,11 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="K192" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L192" s="3"/>
       <c r="M192" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N192" s="14"/>
       <c r="O192" s="3"/>
@@ -7102,7 +7180,7 @@
       </c>
       <c r="L193" s="3"/>
       <c r="M193" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
@@ -7123,7 +7201,7 @@
       </c>
       <c r="L194" s="3"/>
       <c r="M194" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N194" s="3"/>
       <c r="O194" s="3"/>
@@ -7144,14 +7222,14 @@
       </c>
       <c r="L195" s="3"/>
       <c r="M195" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
     </row>
     <row r="209" s="13" customFormat="1" spans="1:15">
       <c r="A209" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7214,7 +7292,7 @@
     </row>
     <row r="212" s="13" customFormat="1" spans="1:15">
       <c r="A212" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -7227,7 +7305,7 @@
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
@@ -7236,7 +7314,7 @@
       </c>
       <c r="L212" s="3"/>
       <c r="M212" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
@@ -7296,20 +7374,20 @@
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L215" s="3"/>
       <c r="M215" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
@@ -7326,11 +7404,11 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L216" s="3"/>
       <c r="M216" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
@@ -7347,11 +7425,11 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L217" s="3"/>
       <c r="M217" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
@@ -7368,11 +7446,11 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L218" s="3"/>
       <c r="M218" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
@@ -7389,11 +7467,11 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L219" s="3"/>
       <c r="M219" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
@@ -7410,11 +7488,11 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
       <c r="K220" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L220" s="3"/>
       <c r="M220" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
@@ -7431,11 +7509,11 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L221" s="3"/>
       <c r="M221" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
@@ -7452,11 +7530,11 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L222" s="3"/>
       <c r="M222" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
@@ -7473,11 +7551,11 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
       <c r="K223" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L223" s="3"/>
       <c r="M223" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N223" s="3"/>
       <c r="O223" s="3"/>
@@ -7803,7 +7881,7 @@
   <sheetData>
     <row r="1" s="13" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7866,7 +7944,7 @@
     </row>
     <row r="4" s="13" customFormat="1" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7879,7 +7957,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -7888,7 +7966,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -7934,11 +8012,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -7950,11 +8028,11 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -7971,11 +8049,11 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7992,11 +8070,11 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -8013,11 +8091,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -8034,11 +8112,11 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -8055,11 +8133,11 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -8071,7 +8149,7 @@
     </row>
     <row r="33" s="13" customFormat="1" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8134,7 +8212,7 @@
     </row>
     <row r="36" s="13" customFormat="1" spans="1:15">
       <c r="A36" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8147,7 +8225,7 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -8156,7 +8234,7 @@
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -8214,11 +8292,11 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -8230,7 +8308,7 @@
     </row>
     <row r="56" s="13" customFormat="1" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -8293,7 +8371,7 @@
     </row>
     <row r="59" s="13" customFormat="1" spans="1:15">
       <c r="A59" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -8306,7 +8384,7 @@
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -8315,7 +8393,7 @@
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -8373,11 +8451,11 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -8394,11 +8472,11 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -8415,11 +8493,11 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -8436,11 +8514,11 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -8457,11 +8535,11 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -8478,11 +8556,11 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -8499,11 +8577,11 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -8515,7 +8593,7 @@
     </row>
     <row r="84" s="13" customFormat="1" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -8578,7 +8656,7 @@
     </row>
     <row r="87" s="13" customFormat="1" spans="1:15">
       <c r="A87" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -8591,7 +8669,7 @@
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -8600,7 +8678,7 @@
       </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
@@ -8669,11 +8747,11 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -8694,11 +8772,11 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L91" s="3"/>
       <c r="M91" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
@@ -8715,11 +8793,11 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L92" s="3"/>
       <c r="M92" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
@@ -8736,11 +8814,11 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -8757,11 +8835,11 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -8778,11 +8856,11 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -8799,11 +8877,11 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -9184,17 +9262,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9266,7 +9344,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -9288,7 +9366,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -9363,7 +9441,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -9417,7 +9495,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -9446,11 +9524,11 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -9470,11 +9548,11 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -9494,11 +9572,11 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -9768,7 +9846,7 @@
     </row>
     <row r="26" ht="14.25" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -9840,7 +9918,7 @@
     </row>
     <row r="29" ht="14.25" spans="1:18">
       <c r="A29" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -9862,7 +9940,7 @@
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -9982,20 +10060,20 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="3" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -10012,11 +10090,11 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="3" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -10035,15 +10113,15 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
+      <c r="K36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -10060,7 +10138,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="8" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8" t="s">
@@ -10073,16 +10151,16 @@
       <c r="R37" s="5"/>
     </row>
     <row r="38" ht="14.25" spans="1:18">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="8" t="s">
         <v>177</v>
       </c>
@@ -10108,11 +10186,11 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="8" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -10126,17 +10204,17 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
       <c r="K40" s="8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -10150,17 +10228,17 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -10180,11 +10258,11 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -10204,11 +10282,11 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -10217,21 +10295,25 @@
       <c r="R43" s="5"/>
     </row>
     <row r="44" ht="14.25" spans="1:18">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
@@ -10476,32 +10558,30 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="1" t="s">
+    <row r="57" ht="14.25" spans="1:18">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-    </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -10516,109 +10596,101 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="9"/>
+      <c r="P58" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2" t="s">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="3" t="s">
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="Q60" s="10"/>
       <c r="R60" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F61" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="9" t="s">
+      <c r="P61" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="11" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="3"/>
@@ -10627,24 +10699,26 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="9"/>
+      <c r="P62" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
     </row>
@@ -10655,35 +10729,33 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="M63" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q63" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="R63" s="12"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
         <v>188</v>
       </c>
@@ -10694,21 +10766,19 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L64" s="3"/>
-      <c r="M64" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q64" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="R64" s="11"/>
+      <c r="Q64" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="R64" s="12"/>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="4"/>
@@ -10726,16 +10796,20 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="11"/>
+      <c r="P65" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q65" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="R65" s="11"/>
     </row>
     <row r="66" spans="1:18">
@@ -10745,26 +10819,26 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="3" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="4"/>
@@ -10773,20 +10847,20 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -10800,13 +10874,17 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+      <c r="F68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
       <c r="K68" s="3" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
@@ -10818,8 +10896,32 @@
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
     </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="130">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -10892,25 +10994,23 @@
     <mergeCell ref="M38:O38"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:O39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:J40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:O40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="M41:O41"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="M42:O42"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:O43"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:O59"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:O44"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="A61:D61"/>
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="H61:J61"/>
     <mergeCell ref="K61:L61"/>
@@ -10921,12 +11021,11 @@
     <mergeCell ref="M62:O62"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:O63"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="K64:O64"/>
     <mergeCell ref="Q64:R64"/>
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="H65:J65"/>
@@ -10937,17 +11036,22 @@
     <mergeCell ref="H66:J66"/>
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="M66:O66"/>
+    <mergeCell ref="Q66:R66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:J67"/>
     <mergeCell ref="K67:L67"/>
     <mergeCell ref="M67:O67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:J68"/>
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="M68:O68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:O69"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A26:O27"/>
-    <mergeCell ref="A57:O58"/>
-    <mergeCell ref="P57:R58"/>
-    <mergeCell ref="P61:R62"/>
+    <mergeCell ref="A58:O59"/>
+    <mergeCell ref="P58:R59"/>
+    <mergeCell ref="P62:R63"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/需求分析/接口文档/客户/商家商城接口.xlsx
+++ b/需求分析/接口文档/客户/商家商城接口.xlsx
@@ -640,9 +640,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -688,17 +688,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -709,48 +708,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,7 +732,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,14 +740,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,23 +802,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,7 +874,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,67 +964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,13 +1012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,31 +1024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,6 +1041,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1062,41 +1092,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,21 +1126,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1149,10 +1149,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1161,91 +1161,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1254,40 +1254,40 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1702,8 +1702,8 @@
   <sheetPr/>
   <dimension ref="A1:R254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="R95" sqref="R95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/需求分析/接口文档/客户/商家商城接口.xlsx
+++ b/需求分析/接口文档/客户/商家商城接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23025" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="商品编辑" sheetId="1" r:id="rId1"/>
@@ -153,6 +153,12 @@
     <t>商品Id</t>
   </si>
   <si>
+    <t>goodsCode</t>
+  </si>
+  <si>
+    <t>商品编码</t>
+  </si>
+  <si>
     <t>goodsName</t>
   </si>
   <si>
@@ -168,6 +174,12 @@
     <t>standardList(json数组)</t>
   </si>
   <si>
+    <t>standardId</t>
+  </si>
+  <si>
+    <t>规格Id</t>
+  </si>
+  <si>
     <t>standardName</t>
   </si>
   <si>
@@ -204,12 +216,6 @@
     <t>result(json对象)</t>
   </si>
   <si>
-    <t>goodsCode</t>
-  </si>
-  <si>
-    <t>商品编码</t>
-  </si>
-  <si>
     <t>goodsAttr</t>
   </si>
   <si>
@@ -220,12 +226,6 @@
   </si>
   <si>
     <t>商品描述图片Id</t>
-  </si>
-  <si>
-    <t>standardId</t>
-  </si>
-  <si>
-    <t>规格Id</t>
   </si>
   <si>
     <t>standardWeight</t>
@@ -674,14 +674,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,7 +703,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,6 +734,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,7 +764,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,9 +772,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,38 +814,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -874,7 +874,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +922,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,19 +958,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,109 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,6 +1041,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1059,21 +1074,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1085,9 +1085,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,27 +1133,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1149,10 +1149,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1161,133 +1161,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1700,10 +1700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R254"/>
+  <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:L29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56:O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2392,17 +2392,17 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
       <c r="K52" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -2419,11 +2419,11 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
@@ -2439,13 +2439,15 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
     </row>
     <row r="55" s="5" customFormat="1" spans="1:15">
       <c r="A55" s="6"/>
@@ -2459,12 +2461,10 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L55" s="8"/>
-      <c r="M55" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
     </row>
@@ -2510,144 +2510,136 @@
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
     </row>
-    <row r="67" s="5" customFormat="1" spans="1:15">
-      <c r="A67" s="1" t="s">
+    <row r="58" s="5" customFormat="1" spans="1:15">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" s="5" customFormat="1" spans="1:15">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+    </row>
+    <row r="59" s="5" customFormat="1" spans="1:15">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
     </row>
     <row r="69" s="5" customFormat="1" spans="1:15">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" s="5" customFormat="1" spans="1:15">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" s="5" customFormat="1" spans="1:15">
+      <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2" t="s">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2" t="s">
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-    </row>
-    <row r="70" s="5" customFormat="1" spans="1:15">
-      <c r="A70" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3" t="s">
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" s="5" customFormat="1" spans="1:15">
+      <c r="A72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3" t="s">
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3" t="s">
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" s="5" customFormat="1" spans="1:15">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-    </row>
-    <row r="72" s="5" customFormat="1" spans="1:15">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -2659,19 +2651,21 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
+      <c r="M73" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
     </row>
@@ -2681,24 +2675,24 @@
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
     </row>
     <row r="75" s="5" customFormat="1" spans="1:15">
       <c r="A75" s="6"/>
@@ -2707,21 +2701,19 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L75" s="7"/>
-      <c r="M75" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="M75" s="7"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
     </row>
@@ -2731,17 +2723,21 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="F76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
       <c r="K76" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L76" s="7"/>
       <c r="M76" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
@@ -2752,11 +2748,15 @@
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
+      <c r="F77" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
       <c r="K77" s="7" t="s">
         <v>41</v>
       </c>
@@ -2773,18 +2773,20 @@
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
     </row>
     <row r="79" s="5" customFormat="1" spans="1:15">
       <c r="A79" s="6"/>
@@ -2792,20 +2794,20 @@
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
     </row>
     <row r="80" s="5" customFormat="1" spans="1:15">
       <c r="A80" s="6"/>
@@ -2818,15 +2820,15 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
+      <c r="K80" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
     </row>
     <row r="81" s="5" customFormat="1" spans="1:15">
       <c r="A81" s="6"/>
@@ -2840,179 +2842,167 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L81" s="8"/>
-      <c r="M81" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="M81" s="8"/>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
     </row>
-    <row r="94" s="5" customFormat="1" spans="1:15">
-      <c r="A94" s="1" t="s">
+    <row r="82" s="5" customFormat="1" spans="1:15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+    </row>
+    <row r="83" s="5" customFormat="1" spans="1:15">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+    </row>
+    <row r="84" s="5" customFormat="1" spans="1:15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-    </row>
-    <row r="95" s="5" customFormat="1" spans="1:15">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-    </row>
-    <row r="96" s="5" customFormat="1" spans="1:15">
-      <c r="A96" s="2" t="s">
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+    </row>
+    <row r="97" s="5" customFormat="1" spans="1:15">
+      <c r="A97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" s="5" customFormat="1" spans="1:15">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" s="5" customFormat="1" spans="1:15">
+      <c r="A99" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2" t="s">
+      <c r="G99" s="2"/>
+      <c r="H99" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2" t="s">
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-    </row>
-    <row r="97" s="5" customFormat="1" spans="1:15">
-      <c r="A97" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3" t="s">
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" s="5" customFormat="1" spans="1:15">
+      <c r="A100" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3" t="s">
+      <c r="G100" s="3"/>
+      <c r="H100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3" t="s">
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3" t="s">
+      <c r="L100" s="3"/>
+      <c r="M100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" s="5" customFormat="1" spans="1:15">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-    </row>
-    <row r="99" s="5" customFormat="1" spans="1:15">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" s="5" customFormat="1" spans="1:15">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
     </row>
     <row r="101" s="5" customFormat="1" spans="1:15">
       <c r="A101" s="6"/>
@@ -3020,17 +3010,21 @@
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="H101" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L101" s="7"/>
       <c r="M101" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
@@ -3041,20 +3035,22 @@
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
-      <c r="F102" s="7"/>
+      <c r="F102" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
+      <c r="H102" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
+      <c r="K102" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
     <row r="103" s="5" customFormat="1" spans="1:15">
       <c r="A103" s="6"/>
@@ -3062,17 +3058,21 @@
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
-      <c r="F103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="H103" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="L103" s="7"/>
       <c r="M103" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
@@ -3089,11 +3089,11 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L104" s="7"/>
       <c r="M104" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N104" s="7"/>
       <c r="O104" s="7"/>
@@ -3104,17 +3104,17 @@
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
       <c r="K105" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="L105" s="7"/>
       <c r="M105" s="7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="N105" s="7"/>
       <c r="O105" s="7"/>
@@ -3125,18 +3125,20 @@
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
     </row>
     <row r="107" s="5" customFormat="1" spans="1:15">
       <c r="A107" s="6"/>
@@ -3144,20 +3146,20 @@
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
     </row>
     <row r="108" s="5" customFormat="1" spans="1:15">
       <c r="A108" s="6"/>
@@ -3170,15 +3172,15 @@
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
-      <c r="K108" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
+      <c r="K108" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
     </row>
     <row r="109" s="5" customFormat="1" spans="1:15">
       <c r="A109" s="6"/>
@@ -3191,15 +3193,13 @@
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
-      <c r="K109" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
+      <c r="K109" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
     </row>
     <row r="110" s="5" customFormat="1" spans="1:15">
       <c r="A110" s="6"/>
@@ -3213,11 +3213,11 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="8" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
@@ -3254,13 +3254,15 @@
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
-      <c r="K112" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
+      <c r="K112" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
     </row>
     <row r="113" s="5" customFormat="1" spans="1:15">
       <c r="A113" s="6"/>
@@ -3273,15 +3275,15 @@
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
-      <c r="K113" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
+      <c r="K113" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
     </row>
     <row r="114" s="5" customFormat="1" spans="1:15">
       <c r="A114" s="6"/>
@@ -3294,180 +3296,168 @@
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
-      <c r="K114" s="17" t="s">
+      <c r="K114" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+    </row>
+    <row r="115" s="5" customFormat="1" spans="1:15">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+    </row>
+    <row r="116" s="5" customFormat="1" spans="1:15">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+    </row>
+    <row r="117" s="5" customFormat="1" spans="1:15">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17" t="s">
+      <c r="L117" s="17"/>
+      <c r="M117" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-    </row>
-    <row r="128" s="5" customFormat="1" spans="1:15">
-      <c r="A128" s="1" t="s">
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+    </row>
+    <row r="131" s="5" customFormat="1" spans="1:15">
+      <c r="A131" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-    </row>
-    <row r="129" s="5" customFormat="1" spans="1:15">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-    </row>
-    <row r="130" s="5" customFormat="1" spans="1:15">
-      <c r="A130" s="2" t="s">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+    </row>
+    <row r="132" s="5" customFormat="1" spans="1:15">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+    </row>
+    <row r="133" s="5" customFormat="1" spans="1:15">
+      <c r="A133" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2" t="s">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2" t="s">
+      <c r="G133" s="2"/>
+      <c r="H133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2" t="s">
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-    </row>
-    <row r="131" s="5" customFormat="1" spans="1:15">
-      <c r="A131" s="3" t="s">
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" s="5" customFormat="1" spans="1:15">
+      <c r="A134" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3" t="s">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F134" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3" t="s">
+      <c r="G134" s="3"/>
+      <c r="H134" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3" t="s">
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3" t="s">
+      <c r="L134" s="3"/>
+      <c r="M134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N131" s="3"/>
-      <c r="O131" s="3"/>
-    </row>
-    <row r="132" s="5" customFormat="1" spans="1:15">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L132" s="7"/>
-      <c r="M132" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
-    </row>
-    <row r="133" s="5" customFormat="1" spans="1:15">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
-      <c r="N133" s="3"/>
-      <c r="O133" s="3"/>
-    </row>
-    <row r="134" s="5" customFormat="1" spans="1:15">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
     </row>
     <row r="135" s="5" customFormat="1" spans="1:15">
       <c r="A135" s="6"/>
@@ -3475,204 +3465,201 @@
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="7"/>
+      <c r="F135" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
+      <c r="H135" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="L135" s="7"/>
       <c r="M135" s="7" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N135" s="7"/>
       <c r="O135" s="7"/>
     </row>
-    <row r="146" s="5" customFormat="1" spans="1:18">
-      <c r="A146" s="1" t="s">
+    <row r="136" s="5" customFormat="1" spans="1:15">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+    </row>
+    <row r="137" s="5" customFormat="1" spans="1:15">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+    </row>
+    <row r="138" s="5" customFormat="1" spans="1:15">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+    </row>
+    <row r="149" s="5" customFormat="1" spans="1:18">
+      <c r="A149" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="18" t="s">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Q146" s="18"/>
-      <c r="R146" s="18"/>
-    </row>
-    <row r="147" s="5" customFormat="1" spans="1:18">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="18"/>
-      <c r="Q147" s="18"/>
-      <c r="R147" s="18"/>
-    </row>
-    <row r="148" s="5" customFormat="1" spans="1:18">
-      <c r="A148" s="2" t="s">
+      <c r="Q149" s="18"/>
+      <c r="R149" s="18"/>
+    </row>
+    <row r="150" s="5" customFormat="1" spans="1:18">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="18"/>
+      <c r="Q150" s="18"/>
+      <c r="R150" s="18"/>
+    </row>
+    <row r="151" s="5" customFormat="1" spans="1:18">
+      <c r="A151" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2" t="s">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2" t="s">
+      <c r="G151" s="2"/>
+      <c r="H151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2" t="s">
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="18"/>
-      <c r="Q148" s="18"/>
-      <c r="R148" s="18"/>
-    </row>
-    <row r="149" s="5" customFormat="1" spans="1:18">
-      <c r="A149" s="3" t="s">
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="18"/>
+      <c r="Q151" s="18"/>
+      <c r="R151" s="18"/>
+    </row>
+    <row r="152" s="5" customFormat="1" spans="1:18">
+      <c r="A152" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3" t="s">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="F152" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3" t="s">
+      <c r="G152" s="3"/>
+      <c r="H152" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3" t="s">
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3" t="s">
+      <c r="L152" s="3"/>
+      <c r="M152" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
-      <c r="P149" s="15" t="s">
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="Q149" s="15"/>
-      <c r="R149" s="15"/>
-    </row>
-    <row r="150" s="5" customFormat="1" spans="1:18">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L150" s="7"/>
-      <c r="M150" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N150" s="7"/>
-      <c r="O150" s="7"/>
-      <c r="P150" s="15"/>
-      <c r="Q150" s="15"/>
-      <c r="R150" s="15"/>
-    </row>
-    <row r="151" s="5" customFormat="1" spans="1:18">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
-      <c r="M151" s="3"/>
-      <c r="N151" s="3"/>
-      <c r="O151" s="3"/>
-      <c r="P151" s="15"/>
-      <c r="Q151" s="15"/>
-      <c r="R151" s="15"/>
-    </row>
-    <row r="152" s="5" customFormat="1" spans="1:18">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
-      <c r="L152" s="7"/>
-      <c r="M152" s="7"/>
-      <c r="N152" s="7"/>
-      <c r="O152" s="7"/>
-      <c r="P152" s="19"/>
-      <c r="Q152" s="19"/>
-      <c r="R152" s="19"/>
+      <c r="Q152" s="15"/>
+      <c r="R152" s="15"/>
     </row>
     <row r="153" s="5" customFormat="1" spans="1:18">
       <c r="A153" s="6"/>
@@ -3681,22 +3668,26 @@
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G153" s="7"/>
       <c r="H153" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
+      <c r="K153" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="L153" s="7"/>
-      <c r="M153" s="7"/>
+      <c r="M153" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="N153" s="7"/>
       <c r="O153" s="7"/>
-      <c r="P153" s="19"/>
-      <c r="Q153" s="19"/>
-      <c r="R153" s="19"/>
+      <c r="P153" s="15"/>
+      <c r="Q153" s="15"/>
+      <c r="R153" s="15"/>
     </row>
     <row r="154" s="5" customFormat="1" spans="1:18">
       <c r="A154" s="6"/>
@@ -3705,22 +3696,22 @@
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="7" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G154" s="7"/>
       <c r="H154" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
-      <c r="L154" s="7"/>
-      <c r="M154" s="7"/>
-      <c r="N154" s="7"/>
-      <c r="O154" s="7"/>
-      <c r="P154" s="19"/>
-      <c r="Q154" s="19"/>
-      <c r="R154" s="19"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="15"/>
+      <c r="Q154" s="15"/>
+      <c r="R154" s="15"/>
     </row>
     <row r="155" s="5" customFormat="1" spans="1:18">
       <c r="A155" s="6"/>
@@ -3729,19 +3720,19 @@
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G155" s="7"/>
       <c r="H155" s="7" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
-      <c r="K155" s="6"/>
-      <c r="L155" s="6"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
-      <c r="O155" s="6"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
       <c r="P155" s="19"/>
       <c r="Q155" s="19"/>
       <c r="R155" s="19"/>
@@ -3753,19 +3744,19 @@
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="7" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G156" s="7"/>
       <c r="H156" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
-      <c r="K156" s="6"/>
-      <c r="L156" s="6"/>
-      <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
-      <c r="O156" s="6"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="7"/>
       <c r="P156" s="19"/>
       <c r="Q156" s="19"/>
       <c r="R156" s="19"/>
@@ -3777,19 +3768,19 @@
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G157" s="7"/>
       <c r="H157" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
-      <c r="K157" s="6"/>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
-      <c r="O157" s="6"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
       <c r="P157" s="19"/>
       <c r="Q157" s="19"/>
       <c r="R157" s="19"/>
@@ -3800,13 +3791,15 @@
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
-      <c r="F158" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
+      <c r="F158" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
@@ -3822,15 +3815,15 @@
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
-      <c r="F159" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
+      <c r="F159" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="6"/>
@@ -3846,15 +3839,15 @@
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
-      <c r="F160" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
+      <c r="F160" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
@@ -3871,12 +3864,10 @@
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="8" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G161" s="8"/>
-      <c r="H161" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="H161" s="8"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="6"/>
@@ -3912,162 +3903,167 @@
       <c r="Q162" s="19"/>
       <c r="R162" s="19"/>
     </row>
-    <row r="178" s="5" customFormat="1" spans="1:15">
-      <c r="A178" s="1" t="s">
+    <row r="163" s="5" customFormat="1" spans="1:18">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="19"/>
+    </row>
+    <row r="164" s="5" customFormat="1" spans="1:18">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="19"/>
+      <c r="Q164" s="19"/>
+      <c r="R164" s="19"/>
+    </row>
+    <row r="165" s="5" customFormat="1" spans="1:18">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+    </row>
+    <row r="181" s="5" customFormat="1" spans="1:15">
+      <c r="A181" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-    </row>
-    <row r="179" s="5" customFormat="1" spans="1:15">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-    </row>
-    <row r="180" s="5" customFormat="1" spans="1:15">
-      <c r="A180" s="2" t="s">
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+    </row>
+    <row r="182" s="5" customFormat="1" spans="1:15">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+    </row>
+    <row r="183" s="5" customFormat="1" spans="1:15">
+      <c r="A183" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2" t="s">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="F183" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2" t="s">
+      <c r="G183" s="2"/>
+      <c r="H183" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2" t="s">
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-    </row>
-    <row r="181" s="5" customFormat="1" spans="1:15">
-      <c r="A181" s="3" t="s">
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+    </row>
+    <row r="184" s="5" customFormat="1" spans="1:15">
+      <c r="A184" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3" t="s">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="F184" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3" t="s">
+      <c r="G184" s="3"/>
+      <c r="H184" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3" t="s">
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3" t="s">
+      <c r="L184" s="3"/>
+      <c r="M184" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N181" s="3"/>
-      <c r="O181" s="3"/>
-    </row>
-    <row r="182" s="5" customFormat="1" spans="1:15">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G182" s="7"/>
-      <c r="H182" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
-      <c r="K182" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L182" s="7"/>
-      <c r="M182" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N182" s="7"/>
-      <c r="O182" s="7"/>
-    </row>
-    <row r="183" s="5" customFormat="1" spans="1:15">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
-      <c r="K183" s="3"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="3"/>
-      <c r="N183" s="3"/>
-      <c r="O183" s="3"/>
-    </row>
-    <row r="184" s="5" customFormat="1" spans="1:15">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3"/>
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
     </row>
@@ -4078,17 +4074,21 @@
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G185" s="7"/>
       <c r="H185" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
-      <c r="K185" s="7"/>
+      <c r="K185" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="L185" s="7"/>
-      <c r="M185" s="7"/>
+      <c r="M185" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="N185" s="7"/>
       <c r="O185" s="7"/>
     </row>
@@ -4099,19 +4099,19 @@
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G186" s="7"/>
       <c r="H186" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
-      <c r="L186" s="7"/>
-      <c r="M186" s="7"/>
-      <c r="N186" s="7"/>
-      <c r="O186" s="7"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
     </row>
     <row r="187" s="5" customFormat="1" spans="1:15">
       <c r="A187" s="6"/>
@@ -4120,19 +4120,19 @@
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G187" s="7"/>
       <c r="H187" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
-      <c r="K187" s="7"/>
-      <c r="L187" s="7"/>
-      <c r="M187" s="7"/>
-      <c r="N187" s="7"/>
-      <c r="O187" s="7"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
     </row>
     <row r="188" s="5" customFormat="1" spans="1:15">
       <c r="A188" s="6"/>
@@ -4141,19 +4141,19 @@
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G188" s="7"/>
       <c r="H188" s="7" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
-      <c r="K188" s="6"/>
-      <c r="L188" s="6"/>
-      <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
-      <c r="O188" s="6"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
     </row>
     <row r="189" s="5" customFormat="1" spans="1:15">
       <c r="A189" s="6"/>
@@ -4162,19 +4162,19 @@
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="7" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G189" s="7"/>
       <c r="H189" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
-      <c r="K189" s="6"/>
-      <c r="L189" s="6"/>
-      <c r="M189" s="6"/>
-      <c r="N189" s="6"/>
-      <c r="O189" s="6"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7"/>
     </row>
     <row r="190" s="5" customFormat="1" spans="1:15">
       <c r="A190" s="6"/>
@@ -4183,19 +4183,19 @@
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G190" s="7"/>
       <c r="H190" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
-      <c r="K190" s="6"/>
-      <c r="L190" s="6"/>
-      <c r="M190" s="6"/>
-      <c r="N190" s="6"/>
-      <c r="O190" s="6"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
     </row>
     <row r="191" s="5" customFormat="1" spans="1:15">
       <c r="A191" s="6"/>
@@ -4203,13 +4203,15 @@
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
-      <c r="F191" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
-      <c r="J191" s="8"/>
+      <c r="F191" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
       <c r="M191" s="6"/>
@@ -4222,15 +4224,15 @@
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
-      <c r="F192" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I192" s="8"/>
-      <c r="J192" s="8"/>
+      <c r="F192" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
@@ -4243,15 +4245,15 @@
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
-      <c r="F193" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I193" s="8"/>
-      <c r="J193" s="8"/>
+      <c r="F193" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
       <c r="M193" s="6"/>
@@ -4265,12 +4267,10 @@
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="8" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G194" s="8"/>
-      <c r="H194" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="H194" s="8"/>
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
       <c r="K194" s="6"/>
@@ -4321,488 +4321,482 @@
       <c r="N196" s="6"/>
       <c r="O196" s="6"/>
     </row>
-    <row r="210" s="5" customFormat="1" spans="1:15">
-      <c r="A210" s="1" t="s">
+    <row r="197" s="5" customFormat="1" spans="1:15">
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I197" s="8"/>
+      <c r="J197" s="8"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+    </row>
+    <row r="198" s="5" customFormat="1" spans="1:15">
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G198" s="8"/>
+      <c r="H198" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I198" s="8"/>
+      <c r="J198" s="8"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+    </row>
+    <row r="199" s="5" customFormat="1" spans="1:15">
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G199" s="8"/>
+      <c r="H199" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I199" s="8"/>
+      <c r="J199" s="8"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+    </row>
+    <row r="213" s="5" customFormat="1" spans="1:15">
+      <c r="A213" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-    </row>
-    <row r="211" s="5" customFormat="1" spans="1:15">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-    </row>
-    <row r="212" s="5" customFormat="1" spans="1:15">
-      <c r="A212" s="2" t="s">
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+    </row>
+    <row r="214" s="5" customFormat="1" spans="1:15">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+    </row>
+    <row r="215" s="5" customFormat="1" spans="1:15">
+      <c r="A215" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2" t="s">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F212" s="2" t="s">
+      <c r="F215" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2" t="s">
+      <c r="G215" s="2"/>
+      <c r="H215" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2" t="s">
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-    </row>
-    <row r="213" s="5" customFormat="1" spans="1:15">
-      <c r="A213" s="3" t="s">
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+    </row>
+    <row r="216" s="5" customFormat="1" spans="1:15">
+      <c r="A216" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3" t="s">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F213" s="3" t="s">
+      <c r="F216" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3" t="s">
+      <c r="G216" s="3"/>
+      <c r="H216" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3" t="s">
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3" t="s">
+      <c r="L216" s="3"/>
+      <c r="M216" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
-    </row>
-    <row r="214" s="5" customFormat="1" spans="1:15">
-      <c r="A214" s="6"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-      <c r="F214" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G214" s="7"/>
-      <c r="H214" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I214" s="7"/>
-      <c r="J214" s="7"/>
-      <c r="K214" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L214" s="7"/>
-      <c r="M214" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N214" s="7"/>
-      <c r="O214" s="7"/>
-    </row>
-    <row r="215" s="5" customFormat="1" spans="1:15">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6"/>
-      <c r="F215" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I215" s="7"/>
-      <c r="J215" s="7"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
-    </row>
-    <row r="216" s="5" customFormat="1" spans="1:15">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6"/>
-      <c r="F216" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G216" s="7"/>
-      <c r="H216" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I216" s="7"/>
-      <c r="J216" s="7"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="229" s="5" customFormat="1" spans="1:15">
-      <c r="A229" s="1" t="s">
+    <row r="217" s="5" customFormat="1" spans="1:15">
+      <c r="A217" s="6"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I217" s="7"/>
+      <c r="J217" s="7"/>
+      <c r="K217" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L217" s="7"/>
+      <c r="M217" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N217" s="7"/>
+      <c r="O217" s="7"/>
+    </row>
+    <row r="218" s="5" customFormat="1" spans="1:15">
+      <c r="A218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I218" s="7"/>
+      <c r="J218" s="7"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+    </row>
+    <row r="219" s="5" customFormat="1" spans="1:15">
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I219" s="7"/>
+      <c r="J219" s="7"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+    </row>
+    <row r="232" s="5" customFormat="1" spans="1:15">
+      <c r="A232" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-    </row>
-    <row r="230" s="5" customFormat="1" spans="1:15">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-    </row>
-    <row r="231" s="5" customFormat="1" spans="1:15">
-      <c r="A231" s="2" t="s">
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+    </row>
+    <row r="233" s="5" customFormat="1" spans="1:15">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+    </row>
+    <row r="234" s="5" customFormat="1" spans="1:15">
+      <c r="A234" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2" t="s">
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F231" s="2" t="s">
+      <c r="F234" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2" t="s">
+      <c r="G234" s="2"/>
+      <c r="H234" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2" t="s">
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
-    </row>
-    <row r="232" s="5" customFormat="1" spans="1:15">
-      <c r="A232" s="3" t="s">
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+    </row>
+    <row r="235" s="5" customFormat="1" spans="1:15">
+      <c r="A235" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3" t="s">
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="F235" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3" t="s">
+      <c r="G235" s="3"/>
+      <c r="H235" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3" t="s">
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3" t="s">
+      <c r="L235" s="3"/>
+      <c r="M235" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N232" s="3"/>
-      <c r="O232" s="3"/>
-    </row>
-    <row r="233" s="5" customFormat="1" spans="1:15">
-      <c r="A233" s="6"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-      <c r="E233" s="6"/>
-      <c r="F233" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I233" s="7"/>
-      <c r="J233" s="7"/>
-      <c r="K233" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L233" s="7"/>
-      <c r="M233" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N233" s="7"/>
-      <c r="O233" s="7"/>
-    </row>
-    <row r="234" s="5" customFormat="1" spans="1:15">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="6"/>
-      <c r="F234" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G234" s="7"/>
-      <c r="H234" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I234" s="7"/>
-      <c r="J234" s="7"/>
-      <c r="K234" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
-    </row>
-    <row r="235" s="5" customFormat="1" spans="1:15">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
-      <c r="F235" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I235" s="7"/>
-      <c r="J235" s="7"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
       <c r="N235" s="3"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="247" s="5" customFormat="1" spans="1:15">
-      <c r="A247" s="1" t="s">
+    <row r="236" s="5" customFormat="1" spans="1:15">
+      <c r="A236" s="6"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I236" s="7"/>
+      <c r="J236" s="7"/>
+      <c r="K236" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L236" s="7"/>
+      <c r="M236" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N236" s="7"/>
+      <c r="O236" s="7"/>
+    </row>
+    <row r="237" s="5" customFormat="1" spans="1:15">
+      <c r="A237" s="6"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I237" s="7"/>
+      <c r="J237" s="7"/>
+      <c r="K237" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L237" s="3"/>
+      <c r="M237" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+    </row>
+    <row r="238" s="5" customFormat="1" spans="1:15">
+      <c r="A238" s="6"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I238" s="7"/>
+      <c r="J238" s="7"/>
+      <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
+    </row>
+    <row r="250" s="5" customFormat="1" spans="1:15">
+      <c r="A250" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
-      <c r="K247" s="1"/>
-      <c r="L247" s="1"/>
-      <c r="M247" s="1"/>
-      <c r="N247" s="1"/>
-      <c r="O247" s="1"/>
-    </row>
-    <row r="248" s="5" customFormat="1" spans="1:15">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
-      <c r="M248" s="1"/>
-      <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
-    </row>
-    <row r="249" s="5" customFormat="1" spans="1:15">
-      <c r="A249" s="2" t="s">
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+    </row>
+    <row r="251" s="5" customFormat="1" spans="1:15">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+    </row>
+    <row r="252" s="5" customFormat="1" spans="1:15">
+      <c r="A252" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2" t="s">
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F249" s="2" t="s">
+      <c r="F252" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2" t="s">
+      <c r="G252" s="2"/>
+      <c r="H252" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
-      <c r="K249" s="2" t="s">
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L249" s="2"/>
-      <c r="M249" s="2"/>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
-    </row>
-    <row r="250" s="5" customFormat="1" spans="1:15">
-      <c r="A250" s="3" t="s">
+      <c r="L252" s="2"/>
+      <c r="M252" s="2"/>
+      <c r="N252" s="2"/>
+      <c r="O252" s="2"/>
+    </row>
+    <row r="253" s="5" customFormat="1" spans="1:15">
+      <c r="A253" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3" t="s">
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F250" s="3" t="s">
+      <c r="F253" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G250" s="3"/>
-      <c r="H250" s="3" t="s">
+      <c r="G253" s="3"/>
+      <c r="H253" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
-      <c r="K250" s="3" t="s">
+      <c r="I253" s="3"/>
+      <c r="J253" s="3"/>
+      <c r="K253" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L250" s="3"/>
-      <c r="M250" s="3" t="s">
+      <c r="L253" s="3"/>
+      <c r="M253" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N250" s="3"/>
-      <c r="O250" s="3"/>
-    </row>
-    <row r="251" s="5" customFormat="1" spans="1:15">
-      <c r="A251" s="6"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-      <c r="F251" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I251" s="7"/>
-      <c r="J251" s="7"/>
-      <c r="K251" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L251" s="7"/>
-      <c r="M251" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N251" s="7"/>
-      <c r="O251" s="7"/>
-    </row>
-    <row r="252" s="5" customFormat="1" spans="1:15">
-      <c r="A252" s="6"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
-      <c r="F252" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G252" s="7"/>
-      <c r="H252" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I252" s="7"/>
-      <c r="J252" s="7"/>
-      <c r="K252" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L252" s="7"/>
-      <c r="M252" s="7"/>
-      <c r="N252" s="7"/>
-      <c r="O252" s="7"/>
-    </row>
-    <row r="253" s="5" customFormat="1" spans="1:15">
-      <c r="A253" s="6"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
-      <c r="F253" s="6"/>
-      <c r="G253" s="6"/>
-      <c r="H253" s="6"/>
-      <c r="I253" s="6"/>
-      <c r="J253" s="6"/>
-      <c r="K253" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L253" s="7"/>
-      <c r="M253" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N253" s="7"/>
-      <c r="O253" s="7"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
     </row>
     <row r="254" s="5" customFormat="1" spans="1:15">
       <c r="A254" s="6"/>
@@ -4810,23 +4804,92 @@
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
-      <c r="F254" s="6"/>
-      <c r="G254" s="6"/>
-      <c r="H254" s="6"/>
-      <c r="I254" s="6"/>
-      <c r="J254" s="6"/>
+      <c r="F254" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G254" s="7"/>
+      <c r="H254" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I254" s="7"/>
+      <c r="J254" s="7"/>
       <c r="K254" s="7" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="L254" s="7"/>
       <c r="M254" s="7" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N254" s="7"/>
       <c r="O254" s="7"/>
     </row>
+    <row r="255" s="5" customFormat="1" spans="1:15">
+      <c r="A255" s="6"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G255" s="7"/>
+      <c r="H255" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I255" s="7"/>
+      <c r="J255" s="7"/>
+      <c r="K255" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L255" s="7"/>
+      <c r="M255" s="7"/>
+      <c r="N255" s="7"/>
+      <c r="O255" s="7"/>
+    </row>
+    <row r="256" s="5" customFormat="1" spans="1:15">
+      <c r="A256" s="6"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+      <c r="K256" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L256" s="7"/>
+      <c r="M256" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N256" s="7"/>
+      <c r="O256" s="7"/>
+    </row>
+    <row r="257" s="5" customFormat="1" spans="1:15">
+      <c r="A257" s="6"/>
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L257" s="7"/>
+      <c r="M257" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N257" s="7"/>
+      <c r="O257" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="363">
+  <mergeCells count="369">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4901,78 +4964,73 @@
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="M50:O50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:O51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:J52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:O52"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:O53"/>
-    <mergeCell ref="K54:O54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="K55:O55"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:O57"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="A71:D71"/>
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="A72:D72"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="H72:J72"/>
     <mergeCell ref="K72:L72"/>
     <mergeCell ref="M72:O72"/>
     <mergeCell ref="F73:G73"/>
     <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:O73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="M73:O73"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="M74:O74"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="K75:O75"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H76:J76"/>
     <mergeCell ref="K76:L76"/>
     <mergeCell ref="M76:O76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:J77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="M77:O77"/>
-    <mergeCell ref="K78:O78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:J79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="M79:O79"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="M80:O80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:O96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="M97:O97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="K81:O81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="A99:D99"/>
     <mergeCell ref="F99:G99"/>
     <mergeCell ref="H99:J99"/>
     <mergeCell ref="K99:O99"/>
+    <mergeCell ref="A100:D100"/>
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="H100:J100"/>
     <mergeCell ref="K100:L100"/>
@@ -4983,48 +5041,48 @@
     <mergeCell ref="M101:O101"/>
     <mergeCell ref="F102:G102"/>
     <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="K102:O102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:J103"/>
     <mergeCell ref="K103:L103"/>
     <mergeCell ref="M103:O103"/>
     <mergeCell ref="F104:G104"/>
     <mergeCell ref="H104:J104"/>
     <mergeCell ref="K104:L104"/>
     <mergeCell ref="M104:O104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:J105"/>
     <mergeCell ref="K105:L105"/>
     <mergeCell ref="M105:O105"/>
-    <mergeCell ref="K106:O106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:J107"/>
     <mergeCell ref="K107:L107"/>
     <mergeCell ref="M107:O107"/>
     <mergeCell ref="K108:L108"/>
     <mergeCell ref="M108:O108"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="K109:O109"/>
     <mergeCell ref="K110:L110"/>
     <mergeCell ref="M110:O110"/>
     <mergeCell ref="K111:L111"/>
     <mergeCell ref="M111:O111"/>
-    <mergeCell ref="K112:O112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="M112:O112"/>
     <mergeCell ref="K113:L113"/>
     <mergeCell ref="M113:O113"/>
     <mergeCell ref="K114:L114"/>
     <mergeCell ref="M114:O114"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="K130:O130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="H131:J131"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="M131:O131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="K115:O115"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:O116"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="A133:D133"/>
     <mergeCell ref="F133:G133"/>
     <mergeCell ref="H133:J133"/>
     <mergeCell ref="K133:O133"/>
+    <mergeCell ref="A134:D134"/>
     <mergeCell ref="F134:G134"/>
     <mergeCell ref="H134:J134"/>
     <mergeCell ref="K134:L134"/>
@@ -5033,22 +5091,22 @@
     <mergeCell ref="H135:J135"/>
     <mergeCell ref="K135:L135"/>
     <mergeCell ref="M135:O135"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:O148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="M149:O149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="M150:O150"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="K136:O136"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="M137:O137"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="M138:O138"/>
+    <mergeCell ref="A151:D151"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="H151:J151"/>
     <mergeCell ref="K151:O151"/>
+    <mergeCell ref="A152:D152"/>
     <mergeCell ref="F152:G152"/>
     <mergeCell ref="H152:J152"/>
     <mergeCell ref="K152:L152"/>
@@ -5059,137 +5117,148 @@
     <mergeCell ref="M153:O153"/>
     <mergeCell ref="F154:G154"/>
     <mergeCell ref="H154:J154"/>
+    <mergeCell ref="K154:O154"/>
     <mergeCell ref="F155:G155"/>
     <mergeCell ref="H155:J155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="M155:O155"/>
     <mergeCell ref="F156:G156"/>
     <mergeCell ref="H156:J156"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="M156:O156"/>
     <mergeCell ref="F157:G157"/>
     <mergeCell ref="H157:J157"/>
-    <mergeCell ref="F158:J158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:J158"/>
     <mergeCell ref="F159:G159"/>
     <mergeCell ref="H159:J159"/>
     <mergeCell ref="F160:G160"/>
     <mergeCell ref="H160:J160"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="F161:J161"/>
     <mergeCell ref="F162:G162"/>
     <mergeCell ref="H162:J162"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="H180:J180"/>
-    <mergeCell ref="K180:O180"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="F181:G181"/>
-    <mergeCell ref="H181:J181"/>
-    <mergeCell ref="K181:L181"/>
-    <mergeCell ref="M181:O181"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="H182:J182"/>
-    <mergeCell ref="K182:L182"/>
-    <mergeCell ref="M182:O182"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="H165:J165"/>
+    <mergeCell ref="A183:D183"/>
     <mergeCell ref="F183:G183"/>
     <mergeCell ref="H183:J183"/>
     <mergeCell ref="K183:O183"/>
+    <mergeCell ref="A184:D184"/>
     <mergeCell ref="F184:G184"/>
     <mergeCell ref="H184:J184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="M184:O184"/>
     <mergeCell ref="F185:G185"/>
     <mergeCell ref="H185:J185"/>
     <mergeCell ref="K185:L185"/>
     <mergeCell ref="M185:O185"/>
     <mergeCell ref="F186:G186"/>
     <mergeCell ref="H186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="M186:O186"/>
+    <mergeCell ref="K186:O186"/>
     <mergeCell ref="F187:G187"/>
     <mergeCell ref="H187:J187"/>
     <mergeCell ref="F188:G188"/>
     <mergeCell ref="H188:J188"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="M188:O188"/>
     <mergeCell ref="F189:G189"/>
     <mergeCell ref="H189:J189"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="M189:O189"/>
     <mergeCell ref="F190:G190"/>
     <mergeCell ref="H190:J190"/>
-    <mergeCell ref="F191:J191"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="H191:J191"/>
     <mergeCell ref="F192:G192"/>
     <mergeCell ref="H192:J192"/>
     <mergeCell ref="F193:G193"/>
     <mergeCell ref="H193:J193"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="H194:J194"/>
+    <mergeCell ref="F194:J194"/>
     <mergeCell ref="F195:G195"/>
     <mergeCell ref="H195:J195"/>
     <mergeCell ref="F196:G196"/>
     <mergeCell ref="H196:J196"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="H212:J212"/>
-    <mergeCell ref="K212:O212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:J213"/>
-    <mergeCell ref="K213:L213"/>
-    <mergeCell ref="M213:O213"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:J214"/>
-    <mergeCell ref="K214:L214"/>
-    <mergeCell ref="M214:O214"/>
+    <mergeCell ref="F197:G197"/>
+    <mergeCell ref="H197:J197"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="H198:J198"/>
+    <mergeCell ref="F199:G199"/>
+    <mergeCell ref="H199:J199"/>
+    <mergeCell ref="A215:D215"/>
     <mergeCell ref="F215:G215"/>
     <mergeCell ref="H215:J215"/>
     <mergeCell ref="K215:O215"/>
+    <mergeCell ref="A216:D216"/>
     <mergeCell ref="F216:G216"/>
     <mergeCell ref="H216:J216"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="F231:G231"/>
-    <mergeCell ref="H231:J231"/>
-    <mergeCell ref="K231:O231"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="F232:G232"/>
-    <mergeCell ref="H232:J232"/>
-    <mergeCell ref="K232:L232"/>
-    <mergeCell ref="M232:O232"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="H233:J233"/>
-    <mergeCell ref="K233:L233"/>
-    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="M216:O216"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="H217:J217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="M217:O217"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="H218:J218"/>
+    <mergeCell ref="K218:O218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="H219:J219"/>
+    <mergeCell ref="A234:D234"/>
     <mergeCell ref="F234:G234"/>
     <mergeCell ref="H234:J234"/>
-    <mergeCell ref="K234:L234"/>
-    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="K234:O234"/>
+    <mergeCell ref="A235:D235"/>
     <mergeCell ref="F235:G235"/>
     <mergeCell ref="H235:J235"/>
-    <mergeCell ref="A249:D249"/>
-    <mergeCell ref="F249:G249"/>
-    <mergeCell ref="H249:J249"/>
-    <mergeCell ref="K249:O249"/>
-    <mergeCell ref="A250:D250"/>
-    <mergeCell ref="F250:G250"/>
-    <mergeCell ref="H250:J250"/>
-    <mergeCell ref="K250:L250"/>
-    <mergeCell ref="M250:O250"/>
-    <mergeCell ref="F251:G251"/>
-    <mergeCell ref="H251:J251"/>
-    <mergeCell ref="K251:L251"/>
-    <mergeCell ref="M251:O251"/>
+    <mergeCell ref="K235:L235"/>
+    <mergeCell ref="M235:O235"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="H236:J236"/>
+    <mergeCell ref="K236:L236"/>
+    <mergeCell ref="M236:O236"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="H237:J237"/>
+    <mergeCell ref="K237:L237"/>
+    <mergeCell ref="M237:O237"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="H238:J238"/>
+    <mergeCell ref="A252:D252"/>
     <mergeCell ref="F252:G252"/>
     <mergeCell ref="H252:J252"/>
     <mergeCell ref="K252:O252"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:J253"/>
     <mergeCell ref="K253:L253"/>
     <mergeCell ref="M253:O253"/>
+    <mergeCell ref="F254:G254"/>
+    <mergeCell ref="H254:J254"/>
     <mergeCell ref="K254:L254"/>
     <mergeCell ref="M254:O254"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="H255:J255"/>
+    <mergeCell ref="K255:O255"/>
+    <mergeCell ref="K256:L256"/>
+    <mergeCell ref="M256:O256"/>
+    <mergeCell ref="K257:L257"/>
+    <mergeCell ref="M257:O257"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R9"/>
     <mergeCell ref="A21:O22"/>
     <mergeCell ref="A43:O44"/>
-    <mergeCell ref="A67:O68"/>
-    <mergeCell ref="A94:O95"/>
-    <mergeCell ref="A128:O129"/>
-    <mergeCell ref="A146:O147"/>
-    <mergeCell ref="P146:R148"/>
+    <mergeCell ref="A69:O70"/>
+    <mergeCell ref="A97:O98"/>
+    <mergeCell ref="A131:O132"/>
+    <mergeCell ref="A149:O150"/>
     <mergeCell ref="P149:R151"/>
-    <mergeCell ref="A178:O179"/>
-    <mergeCell ref="A210:O211"/>
-    <mergeCell ref="A229:O230"/>
-    <mergeCell ref="A247:O248"/>
+    <mergeCell ref="P152:R154"/>
+    <mergeCell ref="A181:O182"/>
+    <mergeCell ref="A213:O214"/>
+    <mergeCell ref="A232:O233"/>
+    <mergeCell ref="A250:O251"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6472,7 +6541,7 @@
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="14" t="s">
@@ -6493,7 +6562,7 @@
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
@@ -6713,11 +6782,11 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L159" s="3"/>
       <c r="M159" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
@@ -6774,11 +6843,11 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="L162" s="3"/>
       <c r="M162" s="14" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="N162" s="14"/>
       <c r="O162" s="3"/>
@@ -6795,7 +6864,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L163" s="3"/>
       <c r="M163" s="3" t="s">
@@ -6816,7 +6885,7 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L164" s="3"/>
       <c r="M164" s="3" t="s">
@@ -6837,7 +6906,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
       <c r="K165" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L165" s="3"/>
       <c r="M165" s="3" t="s">
@@ -7073,11 +7142,11 @@
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L188" s="3"/>
       <c r="M188" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N188" s="3"/>
       <c r="O188" s="3"/>
@@ -7098,7 +7167,7 @@
       </c>
       <c r="L189" s="3"/>
       <c r="M189" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
@@ -7155,11 +7224,11 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="K192" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="L192" s="3"/>
       <c r="M192" s="14" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="N192" s="14"/>
       <c r="O192" s="3"/>
@@ -7176,7 +7245,7 @@
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
       <c r="K193" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L193" s="3"/>
       <c r="M193" s="3" t="s">
@@ -7197,7 +7266,7 @@
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
       <c r="K194" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L194" s="3"/>
       <c r="M194" s="3" t="s">
@@ -7218,7 +7287,7 @@
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
       <c r="K195" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L195" s="3"/>
       <c r="M195" s="3" t="s">
@@ -7360,7 +7429,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
@@ -9500,11 +9569,11 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -9992,7 +10061,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -10042,11 +10111,11 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -10066,11 +10135,11 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -10090,7 +10159,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
@@ -10210,11 +10279,11 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="8" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -10234,11 +10303,11 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -10258,11 +10327,11 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -10282,11 +10351,11 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -10580,7 +10649,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -10828,11 +10897,11 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>

--- a/需求分析/接口文档/客户/商家商城接口.xlsx
+++ b/需求分析/接口文档/客户/商家商城接口.xlsx
@@ -673,39 +673,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -717,7 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -733,15 +704,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,18 +733,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,14 +745,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,7 +757,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -810,10 +765,55 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -874,43 +874,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,37 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +916,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,25 +982,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,19 +1012,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,6 +1041,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1059,17 +1083,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,54 +1141,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1149,10 +1149,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1161,133 +1161,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1702,8 +1702,8 @@
   <sheetPr/>
   <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56:O56"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/需求分析/接口文档/客户/商家商城接口.xlsx
+++ b/需求分析/接口文档/客户/商家商城接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="9360"/>
+    <workbookView windowWidth="22515" windowHeight="9705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="商品编辑" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
   <si>
     <t>查找商品类目</t>
   </si>
@@ -267,18 +267,24 @@
     <t>[goodsImages]和[goodsDescribe]多个用竖线分隔</t>
   </si>
   <si>
+    <t>result</t>
+  </si>
+  <si>
     <t>goodsImages</t>
   </si>
   <si>
+    <t>standards商品规格(json数组)</t>
+  </si>
+  <si>
+    <t>修改商品</t>
+  </si>
+  <si>
+    <t>/s/updateGoods.action</t>
+  </si>
+  <si>
     <t>standards商品规格(json对象)</t>
   </si>
   <si>
-    <t>修改商品</t>
-  </si>
-  <si>
-    <t>/s/updateGoods.action</t>
-  </si>
-  <si>
     <t>删除商品</t>
   </si>
   <si>
@@ -291,9 +297,6 @@
     <t>/s/uploadToImgSpace.action</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>img</t>
   </si>
   <si>
@@ -315,64 +318,67 @@
     <t>用户Id</t>
   </si>
   <si>
+    <t>1代表请求成功，2代表失败,3该部门已有销售点</t>
+  </si>
+  <si>
+    <t>销售点Id</t>
+  </si>
+  <si>
+    <t>branchName</t>
+  </si>
+  <si>
+    <t>销售点名称</t>
+  </si>
+  <si>
+    <t>branchArea</t>
+  </si>
+  <si>
+    <t>销售点区域</t>
+  </si>
+  <si>
+    <t>departmentId</t>
+  </si>
+  <si>
+    <t>部门Id</t>
+  </si>
+  <si>
+    <t>departmentName</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+  </si>
+  <si>
+    <t>managerId</t>
+  </si>
+  <si>
+    <t>负责人Id</t>
+  </si>
+  <si>
+    <t>managerName</t>
+  </si>
+  <si>
+    <t>负责人名称</t>
+  </si>
+  <si>
+    <t>managerPhone</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>latLng</t>
+  </si>
+  <si>
+    <t>经纬度</t>
+  </si>
+  <si>
+    <t>删除销售点</t>
+  </si>
+  <si>
+    <t>/s/removeBranch.action</t>
+  </si>
+  <si>
     <t>1代表请求成功，2代表失败</t>
-  </si>
-  <si>
-    <t>销售点Id</t>
-  </si>
-  <si>
-    <t>branchName</t>
-  </si>
-  <si>
-    <t>销售点名称</t>
-  </si>
-  <si>
-    <t>branchArea</t>
-  </si>
-  <si>
-    <t>销售点区域</t>
-  </si>
-  <si>
-    <t>departmentId</t>
-  </si>
-  <si>
-    <t>部门Id</t>
-  </si>
-  <si>
-    <t>departmentName</t>
-  </si>
-  <si>
-    <t>部门名称</t>
-  </si>
-  <si>
-    <t>managerId</t>
-  </si>
-  <si>
-    <t>负责人Id</t>
-  </si>
-  <si>
-    <t>managerName</t>
-  </si>
-  <si>
-    <t>负责人名称</t>
-  </si>
-  <si>
-    <t>managerPhone</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>latLng</t>
-  </si>
-  <si>
-    <t>经纬度</t>
-  </si>
-  <si>
-    <t>删除销售点</t>
-  </si>
-  <si>
-    <t>/s/removeBranch.action</t>
   </si>
   <si>
     <t>branchId</t>
@@ -673,6 +679,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -682,7 +710,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -697,6 +725,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -704,22 +746,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,34 +784,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -788,30 +815,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,7 +874,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +898,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,13 +916,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,61 +1000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,55 +1030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1054,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,17 +1089,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,8 +1101,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,15 +1139,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1149,10 +1155,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1161,137 +1167,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1334,6 +1340,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="40" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1343,7 +1355,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1700,10 +1712,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R257"/>
+  <dimension ref="A1:R255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="I287" sqref="I287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1729,11 +1741,11 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:18">
       <c r="A2" s="1"/>
@@ -1751,9 +1763,9 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:18">
       <c r="A3" s="2" t="s">
@@ -1781,9 +1793,9 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:18">
       <c r="A4" s="3" t="s">
@@ -1813,9 +1825,9 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:18">
       <c r="A5" s="6"/>
@@ -1841,9 +1853,9 @@
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:18">
       <c r="A6" s="6"/>
@@ -1867,9 +1879,9 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:18">
       <c r="A7" s="6"/>
@@ -1895,9 +1907,9 @@
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:18">
       <c r="A8" s="6"/>
@@ -1919,9 +1931,9 @@
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:18">
       <c r="A9" s="6"/>
@@ -1943,9 +1955,9 @@
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:15">
       <c r="A21" s="1" t="s">
@@ -3193,13 +3205,13 @@
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
-      <c r="K109" s="16" t="s">
+      <c r="K109" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L109" s="16"/>
-      <c r="M109" s="16"/>
-      <c r="N109" s="16"/>
-      <c r="O109" s="16"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="18"/>
     </row>
     <row r="110" s="5" customFormat="1" spans="1:15">
       <c r="A110" s="6"/>
@@ -3317,13 +3329,13 @@
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
-      <c r="K115" s="17" t="s">
+      <c r="K115" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
     </row>
     <row r="116" s="5" customFormat="1" spans="1:15">
       <c r="A116" s="6"/>
@@ -3336,15 +3348,15 @@
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
-      <c r="K116" s="17" t="s">
+      <c r="K116" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17" t="s">
+      <c r="L116" s="19"/>
+      <c r="M116" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
     </row>
     <row r="117" s="5" customFormat="1" spans="1:15">
       <c r="A117" s="6"/>
@@ -3357,15 +3369,15 @@
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
-      <c r="K117" s="17" t="s">
+      <c r="K117" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17" t="s">
+      <c r="L117" s="19"/>
+      <c r="M117" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
     </row>
     <row r="131" s="5" customFormat="1" spans="1:15">
       <c r="A131" s="1" t="s">
@@ -3571,11 +3583,11 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
-      <c r="P149" s="18" t="s">
+      <c r="P149" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q149" s="18"/>
-      <c r="R149" s="18"/>
+      <c r="Q149" s="20"/>
+      <c r="R149" s="20"/>
     </row>
     <row r="150" s="5" customFormat="1" spans="1:18">
       <c r="A150" s="1"/>
@@ -3593,9 +3605,9 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
-      <c r="P150" s="18"/>
-      <c r="Q150" s="18"/>
-      <c r="R150" s="18"/>
+      <c r="P150" s="20"/>
+      <c r="Q150" s="20"/>
+      <c r="R150" s="20"/>
     </row>
     <row r="151" s="5" customFormat="1" spans="1:18">
       <c r="A151" s="2" t="s">
@@ -3623,9 +3635,9 @@
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
-      <c r="P151" s="18"/>
-      <c r="Q151" s="18"/>
-      <c r="R151" s="18"/>
+      <c r="P151" s="20"/>
+      <c r="Q151" s="20"/>
+      <c r="R151" s="20"/>
     </row>
     <row r="152" s="5" customFormat="1" spans="1:18">
       <c r="A152" s="3" t="s">
@@ -3655,11 +3667,11 @@
       </c>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
-      <c r="P152" s="15" t="s">
+      <c r="P152" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="Q152" s="15"/>
-      <c r="R152" s="15"/>
+      <c r="Q152" s="17"/>
+      <c r="R152" s="17"/>
     </row>
     <row r="153" s="5" customFormat="1" spans="1:18">
       <c r="A153" s="6"/>
@@ -3685,9 +3697,9 @@
       </c>
       <c r="N153" s="7"/>
       <c r="O153" s="7"/>
-      <c r="P153" s="15"/>
-      <c r="Q153" s="15"/>
-      <c r="R153" s="15"/>
+      <c r="P153" s="17"/>
+      <c r="Q153" s="17"/>
+      <c r="R153" s="17"/>
     </row>
     <row r="154" s="5" customFormat="1" spans="1:18">
       <c r="A154" s="6"/>
@@ -3704,14 +3716,18 @@
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
-      <c r="K154" s="3"/>
-      <c r="L154" s="3"/>
-      <c r="M154" s="3"/>
-      <c r="N154" s="3"/>
-      <c r="O154" s="3"/>
-      <c r="P154" s="15"/>
-      <c r="Q154" s="15"/>
-      <c r="R154" s="15"/>
+      <c r="K154" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="17"/>
+      <c r="Q154" s="17"/>
+      <c r="R154" s="17"/>
     </row>
     <row r="155" s="5" customFormat="1" spans="1:18">
       <c r="A155" s="6"/>
@@ -3733,9 +3749,9 @@
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
       <c r="O155" s="7"/>
-      <c r="P155" s="19"/>
-      <c r="Q155" s="19"/>
-      <c r="R155" s="19"/>
+      <c r="P155" s="21"/>
+      <c r="Q155" s="21"/>
+      <c r="R155" s="21"/>
     </row>
     <row r="156" s="5" customFormat="1" spans="1:18">
       <c r="A156" s="6"/>
@@ -3757,9 +3773,9 @@
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
       <c r="O156" s="7"/>
-      <c r="P156" s="19"/>
-      <c r="Q156" s="19"/>
-      <c r="R156" s="19"/>
+      <c r="P156" s="21"/>
+      <c r="Q156" s="21"/>
+      <c r="R156" s="21"/>
     </row>
     <row r="157" s="5" customFormat="1" spans="1:18">
       <c r="A157" s="6"/>
@@ -3781,9 +3797,9 @@
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
       <c r="O157" s="7"/>
-      <c r="P157" s="19"/>
-      <c r="Q157" s="19"/>
-      <c r="R157" s="19"/>
+      <c r="P157" s="21"/>
+      <c r="Q157" s="21"/>
+      <c r="R157" s="21"/>
     </row>
     <row r="158" s="5" customFormat="1" spans="1:18">
       <c r="A158" s="6"/>
@@ -3805,9 +3821,9 @@
       <c r="M158" s="6"/>
       <c r="N158" s="6"/>
       <c r="O158" s="6"/>
-      <c r="P158" s="19"/>
-      <c r="Q158" s="19"/>
-      <c r="R158" s="19"/>
+      <c r="P158" s="21"/>
+      <c r="Q158" s="21"/>
+      <c r="R158" s="21"/>
     </row>
     <row r="159" s="5" customFormat="1" spans="1:18">
       <c r="A159" s="6"/>
@@ -3816,7 +3832,7 @@
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G159" s="7"/>
       <c r="H159" s="7" t="s">
@@ -3829,9 +3845,9 @@
       <c r="M159" s="6"/>
       <c r="N159" s="6"/>
       <c r="O159" s="6"/>
-      <c r="P159" s="19"/>
-      <c r="Q159" s="19"/>
-      <c r="R159" s="19"/>
+      <c r="P159" s="21"/>
+      <c r="Q159" s="21"/>
+      <c r="R159" s="21"/>
     </row>
     <row r="160" s="5" customFormat="1" spans="1:18">
       <c r="A160" s="6"/>
@@ -3853,9 +3869,9 @@
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
       <c r="O160" s="6"/>
-      <c r="P160" s="19"/>
-      <c r="Q160" s="19"/>
-      <c r="R160" s="19"/>
+      <c r="P160" s="21"/>
+      <c r="Q160" s="21"/>
+      <c r="R160" s="21"/>
     </row>
     <row r="161" s="5" customFormat="1" spans="1:18">
       <c r="A161" s="6"/>
@@ -3864,7 +3880,7 @@
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -3875,9 +3891,9 @@
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
       <c r="O161" s="6"/>
-      <c r="P161" s="19"/>
-      <c r="Q161" s="19"/>
-      <c r="R161" s="19"/>
+      <c r="P161" s="21"/>
+      <c r="Q161" s="21"/>
+      <c r="R161" s="21"/>
     </row>
     <row r="162" s="5" customFormat="1" spans="1:18">
       <c r="A162" s="6"/>
@@ -3899,9 +3915,9 @@
       <c r="M162" s="6"/>
       <c r="N162" s="6"/>
       <c r="O162" s="6"/>
-      <c r="P162" s="19"/>
-      <c r="Q162" s="19"/>
-      <c r="R162" s="19"/>
+      <c r="P162" s="21"/>
+      <c r="Q162" s="21"/>
+      <c r="R162" s="21"/>
     </row>
     <row r="163" s="5" customFormat="1" spans="1:18">
       <c r="A163" s="6"/>
@@ -3923,9 +3939,9 @@
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
       <c r="O163" s="6"/>
-      <c r="P163" s="19"/>
-      <c r="Q163" s="19"/>
-      <c r="R163" s="19"/>
+      <c r="P163" s="21"/>
+      <c r="Q163" s="21"/>
+      <c r="R163" s="21"/>
     </row>
     <row r="164" s="5" customFormat="1" spans="1:18">
       <c r="A164" s="6"/>
@@ -3947,38 +3963,31 @@
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
       <c r="O164" s="6"/>
-      <c r="P164" s="19"/>
-      <c r="Q164" s="19"/>
-      <c r="R164" s="19"/>
-    </row>
-    <row r="165" s="5" customFormat="1" spans="1:18">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="6"/>
-      <c r="L165" s="6"/>
-      <c r="M165" s="6"/>
-      <c r="N165" s="6"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="19"/>
-      <c r="Q165" s="19"/>
-      <c r="R165" s="19"/>
+      <c r="P164" s="21"/>
+      <c r="Q164" s="21"/>
+      <c r="R164" s="21"/>
+    </row>
+    <row r="180" s="5" customFormat="1" spans="1:15">
+      <c r="A180" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
     </row>
     <row r="181" s="5" customFormat="1" spans="1:15">
-      <c r="A181" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -3995,77 +4004,85 @@
       <c r="O181" s="1"/>
     </row>
     <row r="182" s="5" customFormat="1" spans="1:15">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
+      <c r="A182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
     </row>
     <row r="183" s="5" customFormat="1" spans="1:15">
-      <c r="A183" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
-      <c r="K183" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
-      <c r="O183" s="2"/>
+      <c r="A183" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
     </row>
     <row r="184" s="5" customFormat="1" spans="1:15">
-      <c r="A184" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N184" s="3"/>
-      <c r="O184" s="3"/>
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
     </row>
     <row r="185" s="5" customFormat="1" spans="1:15">
       <c r="A185" s="6"/>
@@ -4074,23 +4091,19 @@
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G185" s="7"/>
       <c r="H185" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
-      <c r="K185" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L185" s="7"/>
-      <c r="M185" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N185" s="7"/>
-      <c r="O185" s="7"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
     </row>
     <row r="186" s="5" customFormat="1" spans="1:15">
       <c r="A186" s="6"/>
@@ -4099,11 +4112,11 @@
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G186" s="7"/>
       <c r="H186" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
@@ -4120,19 +4133,19 @@
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G187" s="7"/>
       <c r="H187" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
-      <c r="K187" s="3"/>
-      <c r="L187" s="3"/>
-      <c r="M187" s="3"/>
-      <c r="N187" s="3"/>
-      <c r="O187" s="3"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7"/>
     </row>
     <row r="188" s="5" customFormat="1" spans="1:15">
       <c r="A188" s="6"/>
@@ -4141,11 +4154,11 @@
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G188" s="7"/>
       <c r="H188" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
@@ -4162,11 +4175,11 @@
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G189" s="7"/>
       <c r="H189" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
@@ -4183,19 +4196,19 @@
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G190" s="7"/>
       <c r="H190" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
-      <c r="K190" s="7"/>
-      <c r="L190" s="7"/>
-      <c r="M190" s="7"/>
-      <c r="N190" s="7"/>
-      <c r="O190" s="7"/>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="6"/>
     </row>
     <row r="191" s="5" customFormat="1" spans="1:15">
       <c r="A191" s="6"/>
@@ -4204,11 +4217,11 @@
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G191" s="7"/>
       <c r="H191" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
@@ -4225,7 +4238,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G192" s="7"/>
       <c r="H192" s="7" t="s">
@@ -4245,15 +4258,13 @@
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
-      <c r="F193" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G193" s="7"/>
-      <c r="H193" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I193" s="7"/>
-      <c r="J193" s="7"/>
+      <c r="F193" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="8"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
       <c r="M193" s="6"/>
@@ -4267,10 +4278,12 @@
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="8" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
+      <c r="H194" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
       <c r="K194" s="6"/>
@@ -4286,11 +4299,11 @@
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G195" s="8"/>
       <c r="H195" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
@@ -4307,11 +4320,11 @@
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G196" s="8"/>
       <c r="H196" s="8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
@@ -4328,11 +4341,11 @@
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G197" s="8"/>
       <c r="H197" s="8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
@@ -4342,137 +4355,141 @@
       <c r="N197" s="6"/>
       <c r="O197" s="6"/>
     </row>
-    <row r="198" s="5" customFormat="1" spans="1:15">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I198" s="8"/>
-      <c r="J198" s="8"/>
-      <c r="K198" s="6"/>
-      <c r="L198" s="6"/>
-      <c r="M198" s="6"/>
-      <c r="N198" s="6"/>
-      <c r="O198" s="6"/>
-    </row>
-    <row r="199" s="5" customFormat="1" spans="1:15">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G199" s="8"/>
-      <c r="H199" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
-      <c r="K199" s="6"/>
-      <c r="L199" s="6"/>
-      <c r="M199" s="6"/>
-      <c r="N199" s="6"/>
-      <c r="O199" s="6"/>
+    <row r="211" s="5" customFormat="1" spans="1:15">
+      <c r="A211" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" s="5" customFormat="1" spans="1:15">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
     </row>
     <row r="213" s="5" customFormat="1" spans="1:15">
-      <c r="A213" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
+      <c r="A213" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
     </row>
     <row r="214" s="5" customFormat="1" spans="1:15">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
+      <c r="A214" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
     </row>
     <row r="215" s="5" customFormat="1" spans="1:15">
-      <c r="A215" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215" s="7"/>
+      <c r="J215" s="7"/>
+      <c r="K215" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L215" s="7"/>
+      <c r="M215" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N215" s="7"/>
+      <c r="O215" s="7"/>
     </row>
     <row r="216" s="5" customFormat="1" spans="1:15">
-      <c r="A216" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I216" s="7"/>
+      <c r="J216" s="7"/>
+      <c r="K216" s="3"/>
       <c r="L216" s="3"/>
-      <c r="M216" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="M216" s="3"/>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
     </row>
@@ -4483,154 +4500,158 @@
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G217" s="7"/>
       <c r="H217" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
-      <c r="K217" s="7" t="s">
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+    </row>
+    <row r="230" s="5" customFormat="1" spans="1:15">
+      <c r="A230" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+    </row>
+    <row r="231" s="5" customFormat="1" spans="1:15">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+    </row>
+    <row r="232" s="5" customFormat="1" spans="1:15">
+      <c r="A232" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+    </row>
+    <row r="233" s="5" customFormat="1" spans="1:15">
+      <c r="A233" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L233" s="3"/>
+      <c r="M233" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+    </row>
+    <row r="234" s="5" customFormat="1" spans="1:15">
+      <c r="A234" s="6"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L217" s="7"/>
-      <c r="M217" s="7" t="s">
+      <c r="G234" s="7"/>
+      <c r="H234" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234" s="7"/>
+      <c r="J234" s="7"/>
+      <c r="K234" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L234" s="7"/>
+      <c r="M234" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N217" s="7"/>
-      <c r="O217" s="7"/>
-    </row>
-    <row r="218" s="5" customFormat="1" spans="1:15">
-      <c r="A218" s="6"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="6"/>
-      <c r="F218" s="7" t="s">
+      <c r="N234" s="7"/>
+      <c r="O234" s="7"/>
+    </row>
+    <row r="235" s="5" customFormat="1" spans="1:15">
+      <c r="A235" s="6"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7" t="s">
+      <c r="G235" s="7"/>
+      <c r="H235" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I218" s="7"/>
-      <c r="J218" s="7"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
-      <c r="O218" s="3"/>
-    </row>
-    <row r="219" s="5" customFormat="1" spans="1:15">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
-      <c r="F219" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I219" s="7"/>
-      <c r="J219" s="7"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
-    </row>
-    <row r="232" s="5" customFormat="1" spans="1:15">
-      <c r="A232" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
-      <c r="L232" s="1"/>
-      <c r="M232" s="1"/>
-      <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
-    </row>
-    <row r="233" s="5" customFormat="1" spans="1:15">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
-      <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
-      <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
-    </row>
-    <row r="234" s="5" customFormat="1" spans="1:15">
-      <c r="A234" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
-    </row>
-    <row r="235" s="5" customFormat="1" spans="1:15">
-      <c r="A235" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
+      <c r="I235" s="7"/>
+      <c r="J235" s="7"/>
       <c r="K235" s="3" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="L235" s="3"/>
       <c r="M235" s="3" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="N235" s="3"/>
       <c r="O235" s="3"/>
@@ -4642,161 +4663,159 @@
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="G236" s="7"/>
       <c r="H236" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
-      <c r="K236" s="7" t="s">
+      <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+    </row>
+    <row r="248" s="5" customFormat="1" spans="1:15">
+      <c r="A248" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+    </row>
+    <row r="249" s="5" customFormat="1" spans="1:15">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+    </row>
+    <row r="250" s="5" customFormat="1" spans="1:15">
+      <c r="A250" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L250" s="2"/>
+      <c r="M250" s="2"/>
+      <c r="N250" s="2"/>
+      <c r="O250" s="2"/>
+    </row>
+    <row r="251" s="5" customFormat="1" spans="1:15">
+      <c r="A251" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+    </row>
+    <row r="252" s="5" customFormat="1" spans="1:15">
+      <c r="A252" s="6"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L236" s="7"/>
-      <c r="M236" s="7" t="s">
+      <c r="G252" s="7"/>
+      <c r="H252" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I252" s="7"/>
+      <c r="J252" s="7"/>
+      <c r="K252" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L252" s="7"/>
+      <c r="M252" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N236" s="7"/>
-      <c r="O236" s="7"/>
-    </row>
-    <row r="237" s="5" customFormat="1" spans="1:15">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
-      <c r="F237" s="7" t="s">
+      <c r="N252" s="7"/>
+      <c r="O252" s="7"/>
+    </row>
+    <row r="253" s="5" customFormat="1" spans="1:15">
+      <c r="A253" s="6"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7" t="s">
+      <c r="G253" s="7"/>
+      <c r="H253" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
-      <c r="K237" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L237" s="3"/>
-      <c r="M237" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N237" s="3"/>
-      <c r="O237" s="3"/>
-    </row>
-    <row r="238" s="5" customFormat="1" spans="1:15">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I238" s="7"/>
-      <c r="J238" s="7"/>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3"/>
-      <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
-      <c r="O238" s="3"/>
-    </row>
-    <row r="250" s="5" customFormat="1" spans="1:15">
-      <c r="A250" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
-      <c r="K250" s="1"/>
-      <c r="L250" s="1"/>
-      <c r="M250" s="1"/>
-      <c r="N250" s="1"/>
-      <c r="O250" s="1"/>
-    </row>
-    <row r="251" s="5" customFormat="1" spans="1:15">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
-      <c r="M251" s="1"/>
-      <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
-    </row>
-    <row r="252" s="5" customFormat="1" spans="1:15">
-      <c r="A252" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I252" s="2"/>
-      <c r="J252" s="2"/>
-      <c r="K252" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L252" s="2"/>
-      <c r="M252" s="2"/>
-      <c r="N252" s="2"/>
-      <c r="O252" s="2"/>
-    </row>
-    <row r="253" s="5" customFormat="1" spans="1:15">
-      <c r="A253" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L253" s="3"/>
-      <c r="M253" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N253" s="3"/>
-      <c r="O253" s="3"/>
+      <c r="I253" s="7"/>
+      <c r="J253" s="7"/>
+      <c r="K253" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L253" s="7"/>
+      <c r="M253" s="7"/>
+      <c r="N253" s="7"/>
+      <c r="O253" s="7"/>
     </row>
     <row r="254" s="5" customFormat="1" spans="1:15">
       <c r="A254" s="6"/>
@@ -4804,21 +4823,17 @@
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
-      <c r="F254" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G254" s="7"/>
-      <c r="H254" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I254" s="7"/>
-      <c r="J254" s="7"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
       <c r="K254" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="L254" s="7"/>
       <c r="M254" s="7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="N254" s="7"/>
       <c r="O254" s="7"/>
@@ -4829,67 +4844,23 @@
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
-      <c r="F255" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G255" s="7"/>
-      <c r="H255" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I255" s="7"/>
-      <c r="J255" s="7"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
       <c r="K255" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="L255" s="7"/>
-      <c r="M255" s="7"/>
+      <c r="M255" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="N255" s="7"/>
       <c r="O255" s="7"/>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:15">
-      <c r="A256" s="6"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="6"/>
-      <c r="G256" s="6"/>
-      <c r="H256" s="6"/>
-      <c r="I256" s="6"/>
-      <c r="J256" s="6"/>
-      <c r="K256" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L256" s="7"/>
-      <c r="M256" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N256" s="7"/>
-      <c r="O256" s="7"/>
-    </row>
-    <row r="257" s="5" customFormat="1" spans="1:15">
-      <c r="A257" s="6"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="6"/>
-      <c r="G257" s="6"/>
-      <c r="H257" s="6"/>
-      <c r="I257" s="6"/>
-      <c r="J257" s="6"/>
-      <c r="K257" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L257" s="7"/>
-      <c r="M257" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N257" s="7"/>
-      <c r="O257" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="369">
+  <mergeCells count="366">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5117,7 +5088,8 @@
     <mergeCell ref="M153:O153"/>
     <mergeCell ref="F154:G154"/>
     <mergeCell ref="H154:J154"/>
-    <mergeCell ref="K154:O154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="M154:O154"/>
     <mergeCell ref="F155:G155"/>
     <mergeCell ref="H155:J155"/>
     <mergeCell ref="K155:L155"/>
@@ -5141,110 +5113,106 @@
     <mergeCell ref="H163:J163"/>
     <mergeCell ref="F164:G164"/>
     <mergeCell ref="H164:J164"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="H165:J165"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="H182:J182"/>
+    <mergeCell ref="K182:O182"/>
     <mergeCell ref="A183:D183"/>
     <mergeCell ref="F183:G183"/>
     <mergeCell ref="H183:J183"/>
-    <mergeCell ref="K183:O183"/>
-    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:O183"/>
     <mergeCell ref="F184:G184"/>
     <mergeCell ref="H184:J184"/>
     <mergeCell ref="K184:L184"/>
     <mergeCell ref="M184:O184"/>
     <mergeCell ref="F185:G185"/>
     <mergeCell ref="H185:J185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="M185:O185"/>
+    <mergeCell ref="K185:O185"/>
     <mergeCell ref="F186:G186"/>
     <mergeCell ref="H186:J186"/>
-    <mergeCell ref="K186:O186"/>
     <mergeCell ref="F187:G187"/>
     <mergeCell ref="H187:J187"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="M187:O187"/>
     <mergeCell ref="F188:G188"/>
     <mergeCell ref="H188:J188"/>
     <mergeCell ref="K188:L188"/>
     <mergeCell ref="M188:O188"/>
     <mergeCell ref="F189:G189"/>
     <mergeCell ref="H189:J189"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="M189:O189"/>
     <mergeCell ref="F190:G190"/>
     <mergeCell ref="H190:J190"/>
     <mergeCell ref="F191:G191"/>
     <mergeCell ref="H191:J191"/>
     <mergeCell ref="F192:G192"/>
     <mergeCell ref="H192:J192"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="H193:J193"/>
-    <mergeCell ref="F194:J194"/>
+    <mergeCell ref="F193:J193"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="H194:J194"/>
     <mergeCell ref="F195:G195"/>
     <mergeCell ref="H195:J195"/>
     <mergeCell ref="F196:G196"/>
     <mergeCell ref="H196:J196"/>
     <mergeCell ref="F197:G197"/>
     <mergeCell ref="H197:J197"/>
-    <mergeCell ref="F198:G198"/>
-    <mergeCell ref="H198:J198"/>
-    <mergeCell ref="F199:G199"/>
-    <mergeCell ref="H199:J199"/>
-    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:J213"/>
+    <mergeCell ref="K213:O213"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:J214"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="M214:O214"/>
     <mergeCell ref="F215:G215"/>
     <mergeCell ref="H215:J215"/>
-    <mergeCell ref="K215:O215"/>
-    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="M215:O215"/>
     <mergeCell ref="F216:G216"/>
     <mergeCell ref="H216:J216"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="M216:O216"/>
+    <mergeCell ref="K216:O216"/>
     <mergeCell ref="F217:G217"/>
     <mergeCell ref="H217:J217"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="M217:O217"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="H218:J218"/>
-    <mergeCell ref="K218:O218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="H219:J219"/>
-    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="H232:J232"/>
+    <mergeCell ref="K232:O232"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="H233:J233"/>
+    <mergeCell ref="K233:L233"/>
+    <mergeCell ref="M233:O233"/>
     <mergeCell ref="F234:G234"/>
     <mergeCell ref="H234:J234"/>
-    <mergeCell ref="K234:O234"/>
-    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="K234:L234"/>
+    <mergeCell ref="M234:O234"/>
     <mergeCell ref="F235:G235"/>
     <mergeCell ref="H235:J235"/>
     <mergeCell ref="K235:L235"/>
     <mergeCell ref="M235:O235"/>
     <mergeCell ref="F236:G236"/>
     <mergeCell ref="H236:J236"/>
-    <mergeCell ref="K236:L236"/>
-    <mergeCell ref="M236:O236"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="H237:J237"/>
-    <mergeCell ref="K237:L237"/>
-    <mergeCell ref="M237:O237"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="H238:J238"/>
-    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A250:D250"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="H250:J250"/>
+    <mergeCell ref="K250:O250"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="F251:G251"/>
+    <mergeCell ref="H251:J251"/>
+    <mergeCell ref="K251:L251"/>
+    <mergeCell ref="M251:O251"/>
     <mergeCell ref="F252:G252"/>
     <mergeCell ref="H252:J252"/>
-    <mergeCell ref="K252:O252"/>
-    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="K252:L252"/>
+    <mergeCell ref="M252:O252"/>
     <mergeCell ref="F253:G253"/>
     <mergeCell ref="H253:J253"/>
-    <mergeCell ref="K253:L253"/>
-    <mergeCell ref="M253:O253"/>
-    <mergeCell ref="F254:G254"/>
-    <mergeCell ref="H254:J254"/>
+    <mergeCell ref="K253:O253"/>
     <mergeCell ref="K254:L254"/>
     <mergeCell ref="M254:O254"/>
-    <mergeCell ref="F255:G255"/>
-    <mergeCell ref="H255:J255"/>
-    <mergeCell ref="K255:O255"/>
-    <mergeCell ref="K256:L256"/>
-    <mergeCell ref="M256:O256"/>
-    <mergeCell ref="K257:L257"/>
-    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="K255:L255"/>
+    <mergeCell ref="M255:O255"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R9"/>
     <mergeCell ref="A21:O22"/>
@@ -5255,10 +5223,10 @@
     <mergeCell ref="A149:O150"/>
     <mergeCell ref="P149:R151"/>
     <mergeCell ref="P152:R154"/>
-    <mergeCell ref="A181:O182"/>
-    <mergeCell ref="A213:O214"/>
-    <mergeCell ref="A232:O233"/>
-    <mergeCell ref="A250:O251"/>
+    <mergeCell ref="A180:O181"/>
+    <mergeCell ref="A211:O212"/>
+    <mergeCell ref="A230:O231"/>
+    <mergeCell ref="A248:O249"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5271,8 +5239,8 @@
   <sheetPr/>
   <dimension ref="A1:O223"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5280,13 +5248,13 @@
     <col min="1" max="11" width="9" style="13"/>
     <col min="12" max="12" width="11.5" style="13" customWidth="1"/>
     <col min="13" max="14" width="9" style="13"/>
-    <col min="15" max="15" width="20" style="13" customWidth="1"/>
+    <col min="15" max="15" width="27.625" style="13" customWidth="1"/>
     <col min="16" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5349,7 +5317,7 @@
     </row>
     <row r="4" s="13" customFormat="1" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5362,7 +5330,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -5371,7 +5339,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -5417,11 +5385,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -5433,11 +5401,11 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -5454,11 +5422,11 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -5475,11 +5443,11 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -5496,11 +5464,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5517,11 +5485,11 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5538,11 +5506,11 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5559,11 +5527,11 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -5580,11 +5548,11 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5596,7 +5564,7 @@
     </row>
     <row r="32" s="13" customFormat="1" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5659,7 +5627,7 @@
     </row>
     <row r="35" s="13" customFormat="1" spans="1:15">
       <c r="A35" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5672,7 +5640,7 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -5681,7 +5649,7 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -5739,11 +5707,11 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5755,7 +5723,7 @@
     </row>
     <row r="59" s="13" customFormat="1" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5818,7 +5786,7 @@
     </row>
     <row r="62" s="13" customFormat="1" spans="1:15">
       <c r="A62" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5831,7 +5799,7 @@
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -5840,7 +5808,7 @@
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -5898,11 +5866,11 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -5919,11 +5887,11 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -5940,11 +5908,11 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -5961,11 +5929,11 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -5982,11 +5950,11 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -6003,11 +5971,11 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -6024,11 +5992,11 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -6045,11 +6013,11 @@
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -6066,11 +6034,11 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -6082,7 +6050,7 @@
     </row>
     <row r="86" s="13" customFormat="1" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6145,7 +6113,7 @@
     </row>
     <row r="89" s="13" customFormat="1" spans="1:15">
       <c r="A89" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6158,7 +6126,7 @@
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -6167,7 +6135,7 @@
       </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
@@ -6261,11 +6229,11 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -6282,11 +6250,11 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -6303,11 +6271,11 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -6324,11 +6292,11 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -6345,50 +6313,50 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L97" s="3"/>
       <c r="M97" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
     </row>
     <row r="119" s="13" customFormat="1" spans="1:15">
-      <c r="A119" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
+      <c r="A119" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
     </row>
     <row r="120" s="13" customFormat="1" spans="1:15">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
     </row>
     <row r="121" s="13" customFormat="1" spans="1:15">
       <c r="A121" s="2" t="s">
@@ -6419,7 +6387,7 @@
     </row>
     <row r="122" s="13" customFormat="1" spans="1:15">
       <c r="A122" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6432,7 +6400,7 @@
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -6441,7 +6409,7 @@
       </c>
       <c r="L122" s="3"/>
       <c r="M122" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
@@ -6499,11 +6467,11 @@
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -6524,7 +6492,7 @@
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -6544,10 +6512,10 @@
         <v>46</v>
       </c>
       <c r="G127" s="3"/>
-      <c r="H127" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I127" s="14"/>
+      <c r="H127" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I127" s="16"/>
       <c r="J127" s="3"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -6566,7 +6534,7 @@
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -6577,40 +6545,40 @@
       <c r="O128" s="4"/>
     </row>
     <row r="151" s="13" customFormat="1" spans="1:15">
-      <c r="A151" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
+      <c r="A151" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
+      <c r="O151" s="15"/>
     </row>
     <row r="152" s="13" customFormat="1" spans="1:15">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
+      <c r="O152" s="15"/>
     </row>
     <row r="153" s="13" customFormat="1" spans="1:15">
       <c r="A153" s="2" t="s">
@@ -6641,7 +6609,7 @@
     </row>
     <row r="154" s="13" customFormat="1" spans="1:15">
       <c r="A154" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -6654,7 +6622,7 @@
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
@@ -6663,7 +6631,7 @@
       </c>
       <c r="L154" s="3"/>
       <c r="M154" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
@@ -6725,11 +6693,11 @@
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -6803,11 +6771,11 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L160" s="3"/>
       <c r="M160" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
@@ -6823,10 +6791,10 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="L161" s="14"/>
+      <c r="K161" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L161" s="16"/>
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
@@ -6846,10 +6814,10 @@
         <v>46</v>
       </c>
       <c r="L162" s="3"/>
-      <c r="M162" s="14" t="s">
+      <c r="M162" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="N162" s="14"/>
+      <c r="N162" s="16"/>
       <c r="O162" s="3"/>
     </row>
     <row r="163" s="13" customFormat="1" spans="1:15">
@@ -6868,7 +6836,7 @@
       </c>
       <c r="L163" s="3"/>
       <c r="M163" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
@@ -6889,7 +6857,7 @@
       </c>
       <c r="L164" s="3"/>
       <c r="M164" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
@@ -6910,7 +6878,7 @@
       </c>
       <c r="L165" s="3"/>
       <c r="M165" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
@@ -6927,50 +6895,50 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L166" s="3"/>
       <c r="M166" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="180" s="13" customFormat="1" spans="1:15">
-      <c r="A180" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-    </row>
-    <row r="181" s="13" customFormat="1" spans="1:15">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
+    <row r="180" s="14" customFormat="1" spans="1:15">
+      <c r="A180" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="15"/>
+      <c r="M180" s="15"/>
+      <c r="N180" s="15"/>
+      <c r="O180" s="15"/>
+    </row>
+    <row r="181" s="14" customFormat="1" spans="1:15">
+      <c r="A181" s="15"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="15"/>
+      <c r="M181" s="15"/>
+      <c r="N181" s="15"/>
+      <c r="O181" s="15"/>
     </row>
     <row r="182" s="13" customFormat="1" spans="1:15">
       <c r="A182" s="2" t="s">
@@ -7001,20 +6969,20 @@
     </row>
     <row r="183" s="13" customFormat="1" spans="1:15">
       <c r="A183" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
@@ -7023,7 +6991,7 @@
       </c>
       <c r="L183" s="3"/>
       <c r="M183" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
@@ -7085,11 +7053,11 @@
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
@@ -7163,7 +7131,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L189" s="3"/>
       <c r="M189" s="3" t="s">
@@ -7184,11 +7152,11 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L190" s="3"/>
       <c r="M190" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
@@ -7204,10 +7172,10 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
-      <c r="K191" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="L191" s="14"/>
+      <c r="K191" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L191" s="16"/>
       <c r="M191" s="3"/>
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
@@ -7227,10 +7195,10 @@
         <v>46</v>
       </c>
       <c r="L192" s="3"/>
-      <c r="M192" s="14" t="s">
+      <c r="M192" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="N192" s="14"/>
+      <c r="N192" s="16"/>
       <c r="O192" s="3"/>
     </row>
     <row r="193" s="13" customFormat="1" spans="1:15">
@@ -7249,7 +7217,7 @@
       </c>
       <c r="L193" s="3"/>
       <c r="M193" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
@@ -7270,7 +7238,7 @@
       </c>
       <c r="L194" s="3"/>
       <c r="M194" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N194" s="3"/>
       <c r="O194" s="3"/>
@@ -7291,14 +7259,14 @@
       </c>
       <c r="L195" s="3"/>
       <c r="M195" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
     </row>
     <row r="209" s="13" customFormat="1" spans="1:15">
       <c r="A209" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7361,7 +7329,7 @@
     </row>
     <row r="212" s="13" customFormat="1" spans="1:15">
       <c r="A212" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -7374,7 +7342,7 @@
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
@@ -7383,7 +7351,7 @@
       </c>
       <c r="L212" s="3"/>
       <c r="M212" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
@@ -7443,20 +7411,20 @@
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L215" s="3"/>
       <c r="M215" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
@@ -7473,11 +7441,11 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L216" s="3"/>
       <c r="M216" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
@@ -7494,11 +7462,11 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L217" s="3"/>
       <c r="M217" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
@@ -7515,11 +7483,11 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L218" s="3"/>
       <c r="M218" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
@@ -7536,11 +7504,11 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L219" s="3"/>
       <c r="M219" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
@@ -7557,11 +7525,11 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
       <c r="K220" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L220" s="3"/>
       <c r="M220" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
@@ -7578,11 +7546,11 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L221" s="3"/>
       <c r="M221" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
@@ -7599,11 +7567,11 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L222" s="3"/>
       <c r="M222" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
@@ -7620,11 +7588,11 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
       <c r="K223" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L223" s="3"/>
       <c r="M223" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N223" s="3"/>
       <c r="O223" s="3"/>
@@ -7937,8 +7905,8 @@
   <sheetPr/>
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7950,7 +7918,7 @@
   <sheetData>
     <row r="1" s="13" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8013,7 +7981,7 @@
     </row>
     <row r="4" s="13" customFormat="1" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -8026,7 +7994,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -8035,7 +8003,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -8081,11 +8049,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -8097,11 +8065,11 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -8118,11 +8086,11 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -8139,11 +8107,11 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -8160,11 +8128,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -8181,11 +8149,11 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -8202,11 +8170,11 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -8218,7 +8186,7 @@
     </row>
     <row r="33" s="13" customFormat="1" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8281,7 +8249,7 @@
     </row>
     <row r="36" s="13" customFormat="1" spans="1:15">
       <c r="A36" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8294,7 +8262,7 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -8303,7 +8271,7 @@
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -8361,11 +8329,11 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -8377,7 +8345,7 @@
     </row>
     <row r="56" s="13" customFormat="1" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -8440,7 +8408,7 @@
     </row>
     <row r="59" s="13" customFormat="1" spans="1:15">
       <c r="A59" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -8453,7 +8421,7 @@
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -8462,7 +8430,7 @@
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -8520,11 +8488,11 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -8541,11 +8509,11 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -8562,11 +8530,11 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -8583,11 +8551,11 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -8604,11 +8572,11 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -8625,11 +8593,11 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -8646,11 +8614,11 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -8662,7 +8630,7 @@
     </row>
     <row r="84" s="13" customFormat="1" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -8725,7 +8693,7 @@
     </row>
     <row r="87" s="13" customFormat="1" spans="1:15">
       <c r="A87" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -8738,7 +8706,7 @@
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -8747,7 +8715,7 @@
       </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
@@ -8816,11 +8784,11 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -8841,11 +8809,11 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L91" s="3"/>
       <c r="M91" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
@@ -8862,11 +8830,11 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L92" s="3"/>
       <c r="M92" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
@@ -8883,11 +8851,11 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -8904,11 +8872,11 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -8925,11 +8893,11 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -8946,11 +8914,11 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -9333,15 +9301,15 @@
   <sheetPr/>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9413,7 +9381,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -9435,7 +9403,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -9510,7 +9478,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -9564,7 +9532,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -9593,11 +9561,11 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -9617,11 +9585,11 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -9641,11 +9609,11 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -9915,7 +9883,7 @@
     </row>
     <row r="26" ht="14.25" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -9987,7 +9955,7 @@
     </row>
     <row r="29" ht="14.25" spans="1:18">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10009,7 +9977,7 @@
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -10163,7 +10131,7 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -10183,11 +10151,11 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -10207,11 +10175,11 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -10231,11 +10199,11 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -10255,11 +10223,11 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -10666,7 +10634,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
@@ -10718,16 +10686,16 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q60" s="10"/>
       <c r="R60" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -10749,16 +10717,16 @@
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q61" s="10"/>
       <c r="R61" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -10786,7 +10754,7 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
@@ -10826,11 +10794,11 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -10842,10 +10810,10 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q64" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R64" s="12"/>
     </row>
@@ -10856,11 +10824,11 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -10874,10 +10842,10 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q65" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="R65" s="11"/>
     </row>
@@ -10888,11 +10856,11 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -10925,11 +10893,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -10948,16 +10916,16 @@
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -10977,11 +10945,11 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>

--- a/需求分析/接口文档/客户/商家商城接口.xlsx
+++ b/需求分析/接口文档/客户/商家商城接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22515" windowHeight="9705" activeTab="3"/>
+    <workbookView windowWidth="21435" windowHeight="9525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="商品编辑" sheetId="1" r:id="rId1"/>
@@ -686,8 +686,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,10 +793,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -717,96 +808,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -815,9 +816,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,7 +886,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,19 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +976,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,43 +1018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,18 +1031,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,11 +1050,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,30 +1104,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1107,17 +1113,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,17 +1147,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1155,10 +1155,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1167,133 +1167,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1714,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:R255"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="I287" sqref="I287"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5239,8 +5239,8 @@
   <sheetPr/>
   <dimension ref="A1:O223"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212:D212"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91:O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7903,10 +7903,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+      <selection activeCell="A87" sqref="A87:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8761,10 +8761,12 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
+      <c r="M89" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
     </row>
@@ -8784,12 +8786,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="L90" s="3"/>
-      <c r="M90" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
@@ -8809,11 +8809,11 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L91" s="3"/>
       <c r="M91" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
@@ -8824,17 +8824,17 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
       <c r="K92" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L92" s="3"/>
       <c r="M92" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
@@ -8851,11 +8851,11 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -8872,11 +8872,11 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -8893,11 +8893,11 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -8914,31 +8914,35 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="112" s="13" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
+    <row r="97" s="13" customFormat="1" spans="1:15">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
     </row>
     <row r="113" s="13" customFormat="1" ht="14.25" spans="1:15">
       <c r="A113" s="5"/>
@@ -9144,8 +9148,25 @@
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
     </row>
+    <row r="125" s="13" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="147">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -9266,15 +9287,17 @@
     <mergeCell ref="M88:O88"/>
     <mergeCell ref="F89:G89"/>
     <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:O89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:O89"/>
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="H90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="K90:O90"/>
     <mergeCell ref="F91:G91"/>
     <mergeCell ref="H91:J91"/>
     <mergeCell ref="K91:L91"/>
     <mergeCell ref="M91:O91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:J92"/>
     <mergeCell ref="K92:L92"/>
     <mergeCell ref="M92:O92"/>
     <mergeCell ref="K93:L93"/>
@@ -9285,6 +9308,8 @@
     <mergeCell ref="M95:O95"/>
     <mergeCell ref="K96:L96"/>
     <mergeCell ref="M96:O96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:O97"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A33:O34"/>
     <mergeCell ref="A56:O57"/>
@@ -9301,8 +9326,8 @@
   <sheetPr/>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/商家商城接口.xlsx
+++ b/需求分析/接口文档/客户/商家商城接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21435" windowHeight="9525" activeTab="3"/>
+    <workbookView windowWidth="21930" windowHeight="9600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="商品编辑" sheetId="1" r:id="rId1"/>
@@ -686,9 +686,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +709,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,21 +717,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,8 +738,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,6 +766,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,16 +816,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,7 +886,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,13 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,19 +958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,25 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,13 +988,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,31 +1024,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,25 +1051,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,16 +1081,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,17 +1139,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,10 +1155,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1167,133 +1167,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9326,8 +9326,8 @@
   <sheetPr/>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34:O34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
